--- a/extended_outcome/extended_scenarios.xlsx
+++ b/extended_outcome/extended_scenarios.xlsx
@@ -560,73 +560,73 @@
         <v>85</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
         <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F2" t="n">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="G2" t="n">
         <v>95</v>
       </c>
       <c r="H2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="J2" t="n">
         <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L2" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M2" t="n">
         <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O2" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="P2" t="n">
         <v>108.4410816325624</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.4410816325624</v>
+        <v>83.44108163256242</v>
       </c>
       <c r="R2" t="n">
-        <v>113.4410816325624</v>
+        <v>133.4410816325624</v>
       </c>
       <c r="S2" t="n">
         <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="U2" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="V2" t="n">
         <v>80</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="X2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -634,73 +634,73 @@
         <v>81.66666666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>87.22222222222223</v>
+        <v>97.77777777777779</v>
       </c>
       <c r="C3" t="n">
-        <v>76.11111111111111</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="D3" t="n">
         <v>155.5555555555555</v>
       </c>
       <c r="E3" t="n">
-        <v>164</v>
+        <v>192.2222222222222</v>
       </c>
       <c r="F3" t="n">
-        <v>147.1111111111111</v>
+        <v>118.8888888888889</v>
       </c>
       <c r="G3" t="n">
         <v>97.14285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>92</v>
+        <v>76.42857142857142</v>
       </c>
       <c r="I3" t="n">
-        <v>102.2857142857143</v>
+        <v>117.8571428571429</v>
       </c>
       <c r="J3" t="n">
         <v>108.8888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>103.7777777777778</v>
+        <v>86.55555555555556</v>
       </c>
       <c r="L3" t="n">
-        <v>114</v>
+        <v>131.2222222222222</v>
       </c>
       <c r="M3" t="n">
         <v>138.5714285714286</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2857142857143</v>
+        <v>106.1428571428572</v>
       </c>
       <c r="O3" t="n">
-        <v>144.8571428571429</v>
+        <v>171</v>
       </c>
       <c r="P3" t="n">
         <v>117.4498383767051</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.5756393913433</v>
+        <v>146.9530424352576</v>
       </c>
       <c r="R3" t="n">
-        <v>111.324037362067</v>
+        <v>87.94663431815263</v>
       </c>
       <c r="S3" t="n">
         <v>92.85714285714286</v>
       </c>
       <c r="T3" t="n">
-        <v>83.85714285714286</v>
+        <v>65.71428571428572</v>
       </c>
       <c r="U3" t="n">
-        <v>101.8571428571429</v>
+        <v>120</v>
       </c>
       <c r="V3" t="n">
         <v>74.28571428571429</v>
       </c>
       <c r="W3" t="n">
-        <v>63.57142857142858</v>
+        <v>42.14285714285715</v>
       </c>
       <c r="X3" t="n">
-        <v>85</v>
+        <v>106.4285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -708,73 +708,73 @@
         <v>78.33333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>72.22222222222221</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="C4" t="n">
-        <v>84.44444444444444</v>
+        <v>95.55555555555554</v>
       </c>
       <c r="D4" t="n">
         <v>161.1111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>170</v>
+        <v>199.4444444444445</v>
       </c>
       <c r="F4" t="n">
-        <v>152.2222222222222</v>
+        <v>122.7777777777778</v>
       </c>
       <c r="G4" t="n">
         <v>99.28571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>104.5714285714286</v>
+        <v>120.7142857142857</v>
       </c>
       <c r="I4" t="n">
-        <v>94</v>
+        <v>77.85714285714286</v>
       </c>
       <c r="J4" t="n">
         <v>107.7777777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>113</v>
+        <v>130.4444444444444</v>
       </c>
       <c r="L4" t="n">
-        <v>102.5555555555555</v>
+        <v>85.1111111111111</v>
       </c>
       <c r="M4" t="n">
         <v>137.1428571428571</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7142857142857</v>
+        <v>170</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5714285714286</v>
+        <v>104.2857142857143</v>
       </c>
       <c r="P4" t="n">
         <v>118.4498672204391</v>
       </c>
       <c r="Q4" t="n">
-        <v>125.5369148722496</v>
+        <v>151.7980578276809</v>
       </c>
       <c r="R4" t="n">
-        <v>111.3628195686286</v>
+        <v>85.10167661319726</v>
       </c>
       <c r="S4" t="n">
         <v>85.71428571428571</v>
       </c>
       <c r="T4" t="n">
-        <v>95.71428571428571</v>
+        <v>115</v>
       </c>
       <c r="U4" t="n">
-        <v>75.71428571428571</v>
+        <v>56.42857142857142</v>
       </c>
       <c r="V4" t="n">
         <v>68.57142857142857</v>
       </c>
       <c r="W4" t="n">
-        <v>57.14285714285714</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>102.8571428571429</v>
       </c>
     </row>
     <row r="5">
@@ -782,73 +782,73 @@
         <v>75</v>
       </c>
       <c r="B5" t="n">
-        <v>68.33333333333333</v>
+        <v>56.66666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>81.66666666666667</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="D5" t="n">
         <v>166.6666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>157.3333333333333</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>176</v>
+        <v>206.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>101.4285714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>106.8571428571429</v>
+        <v>123.5714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>96</v>
+        <v>79.28571428571429</v>
       </c>
       <c r="J5" t="n">
         <v>106.6666666666667</v>
       </c>
       <c r="K5" t="n">
-        <v>112</v>
+        <v>129.6666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>101.3333333333333</v>
+        <v>83.66666666666667</v>
       </c>
       <c r="M5" t="n">
         <v>135.7142857142857</v>
       </c>
       <c r="N5" t="n">
-        <v>142.5714285714286</v>
+        <v>169</v>
       </c>
       <c r="O5" t="n">
-        <v>128.8571428571429</v>
+        <v>102.4285714285714</v>
       </c>
       <c r="P5" t="n">
         <v>115.9397792763166</v>
       </c>
       <c r="Q5" t="n">
-        <v>108.1965414072692</v>
+        <v>79.96682780012685</v>
       </c>
       <c r="R5" t="n">
-        <v>123.683017145364</v>
+        <v>151.9127307525063</v>
       </c>
       <c r="S5" t="n">
         <v>78.57142857142857</v>
       </c>
       <c r="T5" t="n">
-        <v>67.57142857142857</v>
+        <v>47.14285714285714</v>
       </c>
       <c r="U5" t="n">
-        <v>89.57142857142857</v>
+        <v>110</v>
       </c>
       <c r="V5" t="n">
         <v>62.85714285714286</v>
       </c>
       <c r="W5" t="n">
-        <v>50.71428571428572</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="X5" t="n">
-        <v>75</v>
+        <v>99.28571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -856,73 +856,73 @@
         <v>71.66666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>78.8888888888889</v>
+        <v>91.11111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>64.44444444444444</v>
+        <v>52.22222222222223</v>
       </c>
       <c r="D6" t="n">
         <v>172.2222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>162.4444444444445</v>
+        <v>130.5555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>182</v>
+        <v>213.8888888888889</v>
       </c>
       <c r="G6" t="n">
         <v>103.5714285714286</v>
       </c>
       <c r="H6" t="n">
-        <v>98</v>
+        <v>80.71428571428571</v>
       </c>
       <c r="I6" t="n">
-        <v>109.1428571428571</v>
+        <v>126.4285714285714</v>
       </c>
       <c r="J6" t="n">
         <v>105.5555555555556</v>
       </c>
       <c r="K6" t="n">
-        <v>111</v>
+        <v>128.8888888888889</v>
       </c>
       <c r="L6" t="n">
-        <v>100.1111111111111</v>
+        <v>82.22222222222223</v>
       </c>
       <c r="M6" t="n">
         <v>134.2857142857143</v>
       </c>
       <c r="N6" t="n">
-        <v>127.1428571428571</v>
+        <v>100.5714285714286</v>
       </c>
       <c r="O6" t="n">
-        <v>141.4285714285714</v>
+        <v>168</v>
       </c>
       <c r="P6" t="n">
         <v>110.3932381869409</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3947795383388</v>
+        <v>73.39940359253261</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3916968355429</v>
+        <v>147.3870727813491</v>
       </c>
       <c r="S6" t="n">
         <v>71.42857142857143</v>
       </c>
       <c r="T6" t="n">
-        <v>83.42857142857143</v>
+        <v>105</v>
       </c>
       <c r="U6" t="n">
-        <v>59.42857142857143</v>
+        <v>37.85714285714286</v>
       </c>
       <c r="V6" t="n">
         <v>57.14285714285714</v>
       </c>
       <c r="W6" t="n">
-        <v>44.28571428571428</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="X6" t="n">
-        <v>70</v>
+        <v>95.71428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -930,73 +930,73 @@
         <v>68.33333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>60.55555555555555</v>
+        <v>47.77777777777777</v>
       </c>
       <c r="C7" t="n">
-        <v>76.1111111111111</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="D7" t="n">
         <v>177.7777777777778</v>
       </c>
       <c r="E7" t="n">
-        <v>188</v>
+        <v>221.1111111111111</v>
       </c>
       <c r="F7" t="n">
-        <v>167.5555555555555</v>
+        <v>134.4444444444444</v>
       </c>
       <c r="G7" t="n">
         <v>105.7142857142857</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="I7" t="n">
-        <v>111.4285714285714</v>
+        <v>129.2857142857143</v>
       </c>
       <c r="J7" t="n">
         <v>104.4444444444444</v>
       </c>
       <c r="K7" t="n">
-        <v>98.88888888888889</v>
+        <v>80.77777777777777</v>
       </c>
       <c r="L7" t="n">
-        <v>110</v>
+        <v>128.1111111111111</v>
       </c>
       <c r="M7" t="n">
         <v>132.8571428571429</v>
       </c>
       <c r="N7" t="n">
-        <v>125.4285714285714</v>
+        <v>98.71428571428572</v>
       </c>
       <c r="O7" t="n">
-        <v>140.2857142857143</v>
+        <v>167</v>
       </c>
       <c r="P7" t="n">
         <v>128.9462754017293</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.7616806678786</v>
+        <v>165.2078964663265</v>
       </c>
       <c r="R7" t="n">
-        <v>121.1308701355801</v>
+        <v>92.68465433713222</v>
       </c>
       <c r="S7" t="n">
         <v>64.28571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>51.28571428571428</v>
+        <v>28.57142857142856</v>
       </c>
       <c r="U7" t="n">
-        <v>77.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="V7" t="n">
         <v>51.42857142857143</v>
       </c>
       <c r="W7" t="n">
-        <v>37.85714285714286</v>
+        <v>10.71428571428572</v>
       </c>
       <c r="X7" t="n">
-        <v>65</v>
+        <v>92.14285714285714</v>
       </c>
     </row>
     <row r="8">
@@ -1004,73 +1004,73 @@
         <v>65</v>
       </c>
       <c r="B8" t="n">
-        <v>56.66666666666666</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>73.33333333333333</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="D8" t="n">
         <v>183.3333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>194</v>
+        <v>228.3333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>172.6666666666667</v>
+        <v>138.3333333333333</v>
       </c>
       <c r="G8" t="n">
         <v>107.8571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>102</v>
+        <v>83.57142857142858</v>
       </c>
       <c r="I8" t="n">
-        <v>113.7142857142857</v>
+        <v>132.1428571428571</v>
       </c>
       <c r="J8" t="n">
         <v>103.3333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>109</v>
+        <v>127.3333333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>97.66666666666666</v>
+        <v>79.33333333333333</v>
       </c>
       <c r="M8" t="n">
         <v>131.4285714285714</v>
       </c>
       <c r="N8" t="n">
-        <v>123.7142857142857</v>
+        <v>96.85714285714285</v>
       </c>
       <c r="O8" t="n">
-        <v>139.1428571428571</v>
+        <v>166</v>
       </c>
       <c r="P8" t="n">
         <v>130.6276118728695</v>
       </c>
       <c r="Q8" t="n">
-        <v>137.8484458640955</v>
+        <v>164.5109478377733</v>
       </c>
       <c r="R8" t="n">
-        <v>123.4067778816435</v>
+        <v>96.7442759079657</v>
       </c>
       <c r="S8" t="n">
         <v>57.14285714285714</v>
       </c>
       <c r="T8" t="n">
-        <v>43.14285714285714</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="U8" t="n">
-        <v>71.14285714285714</v>
+        <v>95</v>
       </c>
       <c r="V8" t="n">
         <v>45.71428571428572</v>
       </c>
       <c r="W8" t="n">
-        <v>31.42857142857143</v>
+        <v>2.857142857142854</v>
       </c>
       <c r="X8" t="n">
-        <v>60</v>
+        <v>88.57142857142858</v>
       </c>
     </row>
     <row r="9">
@@ -1078,73 +1078,73 @@
         <v>61.66666666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>52.77777777777777</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="C9" t="n">
-        <v>70.55555555555556</v>
+        <v>84.44444444444444</v>
       </c>
       <c r="D9" t="n">
         <v>188.8888888888889</v>
       </c>
       <c r="E9" t="n">
-        <v>200</v>
+        <v>235.5555555555555</v>
       </c>
       <c r="F9" t="n">
-        <v>177.7777777777778</v>
+        <v>142.2222222222222</v>
       </c>
       <c r="G9" t="n">
         <v>110</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I9" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J9" t="n">
         <v>102.2222222222222</v>
       </c>
       <c r="K9" t="n">
-        <v>96.44444444444446</v>
+        <v>77.8888888888889</v>
       </c>
       <c r="L9" t="n">
-        <v>108</v>
+        <v>126.5555555555556</v>
       </c>
       <c r="M9" t="n">
         <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O9" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P9" t="n">
         <v>117.0534525395763</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.7518013222236</v>
+        <v>86.84684767016557</v>
       </c>
       <c r="R9" t="n">
-        <v>123.3551037569289</v>
+        <v>147.260057408987</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
       </c>
       <c r="T9" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V9" t="n">
         <v>40</v>
       </c>
       <c r="W9" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1152,73 +1152,73 @@
         <v>58.33333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>48.88888888888889</v>
+        <v>34.44444444444444</v>
       </c>
       <c r="C10" t="n">
-        <v>67.77777777777777</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="D10" t="n">
         <v>194.4444444444445</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>242.7777777777778</v>
       </c>
       <c r="F10" t="n">
-        <v>182.8888888888889</v>
+        <v>146.1111111111111</v>
       </c>
       <c r="G10" t="n">
         <v>110</v>
       </c>
       <c r="H10" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I10" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
         <v>101.1111111111111</v>
       </c>
       <c r="K10" t="n">
-        <v>95.22222222222223</v>
+        <v>76.44444444444444</v>
       </c>
       <c r="L10" t="n">
-        <v>107</v>
+        <v>125.7777777777778</v>
       </c>
       <c r="M10" t="n">
         <v>130</v>
       </c>
       <c r="N10" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="O10" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="P10" t="n">
         <v>131.4954450102834</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.3032343503413</v>
+        <v>105.7266023705149</v>
       </c>
       <c r="R10" t="n">
-        <v>136.6876556702256</v>
+        <v>157.264287650052</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
       </c>
       <c r="T10" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V10" t="n">
         <v>35</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1226,73 +1226,73 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F11" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
         <v>117.7777777777778</v>
       </c>
       <c r="H11" t="n">
-        <v>124.2222222222222</v>
+        <v>144.4444444444444</v>
       </c>
       <c r="I11" t="n">
-        <v>111.3333333333333</v>
+        <v>91.1111111111111</v>
       </c>
       <c r="J11" t="n">
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="L11" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="M11" t="n">
         <v>125.9090909090909</v>
       </c>
       <c r="N11" t="n">
-        <v>117.5454545454545</v>
+        <v>90.45454545454545</v>
       </c>
       <c r="O11" t="n">
-        <v>134.2727272727273</v>
+        <v>161.3636363636364</v>
       </c>
       <c r="P11" t="n">
         <v>118.954701941098</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.0093772870271</v>
+        <v>90.17340332481456</v>
       </c>
       <c r="R11" t="n">
-        <v>124.9000265951689</v>
+        <v>147.7360005573814</v>
       </c>
       <c r="S11" t="n">
         <v>46.25</v>
       </c>
       <c r="T11" t="n">
-        <v>30</v>
+        <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>62.5</v>
+        <v>88.75</v>
       </c>
       <c r="V11" t="n">
         <v>30</v>
       </c>
       <c r="W11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -1300,73 +1300,73 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F12" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="G12" t="n">
         <v>125.5555555555556</v>
       </c>
       <c r="H12" t="n">
-        <v>118.6666666666667</v>
+        <v>97.22222222222223</v>
       </c>
       <c r="I12" t="n">
-        <v>132.4444444444445</v>
+        <v>153.8888888888889</v>
       </c>
       <c r="J12" t="n">
         <v>98</v>
       </c>
       <c r="K12" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L12" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>121.8181818181818</v>
       </c>
       <c r="N12" t="n">
-        <v>130.5454545454545</v>
+        <v>157.7272727272727</v>
       </c>
       <c r="O12" t="n">
-        <v>113.0909090909091</v>
+        <v>85.90909090909091</v>
       </c>
       <c r="P12" t="n">
         <v>131.3394263044773</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.2841114904007</v>
+        <v>164.1181670481708</v>
       </c>
       <c r="R12" t="n">
-        <v>124.394741118554</v>
+        <v>98.56068556078388</v>
       </c>
       <c r="S12" t="n">
         <v>42.5</v>
       </c>
       <c r="T12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="V12" t="n">
         <v>25</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1374,73 +1374,73 @@
         <v>53.33333333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>42.77777777777778</v>
+        <v>27.22222222222222</v>
       </c>
       <c r="C13" t="n">
-        <v>63.88888888888889</v>
+        <v>79.44444444444444</v>
       </c>
       <c r="D13" t="n">
         <v>208.8888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>221.7777777777778</v>
+        <v>261.1111111111111</v>
       </c>
       <c r="F13" t="n">
-        <v>196</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>133.3333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>140.6666666666667</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>126</v>
+        <v>103.3333333333333</v>
       </c>
       <c r="J13" t="n">
         <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L13" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
         <v>117.7272727272727</v>
       </c>
       <c r="N13" t="n">
-        <v>108.6363636363636</v>
+        <v>81.36363636363635</v>
       </c>
       <c r="O13" t="n">
-        <v>126.8181818181818</v>
+        <v>154.0909090909091</v>
       </c>
       <c r="P13" t="n">
         <v>117.7357345201336</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3955324392526</v>
+        <v>153.3749261966096</v>
       </c>
       <c r="R13" t="n">
-        <v>110.0759366010146</v>
+        <v>82.09654284365762</v>
       </c>
       <c r="S13" t="n">
         <v>38.75</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>57.5</v>
+        <v>76.5</v>
       </c>
       <c r="V13" t="n">
         <v>22</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -1448,73 +1448,73 @@
         <v>51.66666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>40.55555555555556</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="C14" t="n">
-        <v>62.77777777777777</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="D14" t="n">
         <v>217.7777777777778</v>
       </c>
       <c r="E14" t="n">
-        <v>231.5555555555555</v>
+        <v>272.2222222222222</v>
       </c>
       <c r="F14" t="n">
-        <v>204</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>141.1111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>148.8888888888889</v>
+        <v>172.7777777777778</v>
       </c>
       <c r="I14" t="n">
-        <v>133.3333333333333</v>
+        <v>109.4444444444444</v>
       </c>
       <c r="J14" t="n">
         <v>93</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L14" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M14" t="n">
         <v>113.6363636363636</v>
       </c>
       <c r="N14" t="n">
-        <v>123.0909090909091</v>
+        <v>150.4545454545455</v>
       </c>
       <c r="O14" t="n">
-        <v>104.1818181818182</v>
+        <v>76.81818181818181</v>
       </c>
       <c r="P14" t="n">
         <v>109.2816452249995</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.2677825638471</v>
+        <v>146.2261945803899</v>
       </c>
       <c r="R14" t="n">
-        <v>101.2955078861519</v>
+        <v>72.3370958696091</v>
       </c>
       <c r="S14" t="n">
         <v>35</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="V14" t="n">
         <v>20</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -1522,73 +1522,73 @@
         <v>50</v>
       </c>
       <c r="B15" t="n">
-        <v>38.33333333333334</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>61.66666666666666</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="D15" t="n">
         <v>226.6666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>241.3333333333333</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="G15" t="n">
         <v>148.8888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>157.1111111111111</v>
+        <v>182.2222222222222</v>
       </c>
       <c r="I15" t="n">
-        <v>140.6666666666667</v>
+        <v>115.5555555555555</v>
       </c>
       <c r="J15" t="n">
         <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L15" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M15" t="n">
         <v>109.5454545454545</v>
       </c>
       <c r="N15" t="n">
-        <v>99.72727272727273</v>
+        <v>72.27272727272728</v>
       </c>
       <c r="O15" t="n">
-        <v>119.3636363636364</v>
+        <v>146.8181818181818</v>
       </c>
       <c r="P15" t="n">
         <v>113.3213097856077</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.1973133447177</v>
+        <v>149.8253240220476</v>
       </c>
       <c r="R15" t="n">
-        <v>105.4453062264977</v>
+        <v>76.81729554916774</v>
       </c>
       <c r="S15" t="n">
         <v>35</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="V15" t="n">
         <v>22</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1596,73 +1596,73 @@
         <v>48.33333333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>36.11111111111111</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="C16" t="n">
-        <v>60.55555555555556</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="D16" t="n">
         <v>235.5555555555555</v>
       </c>
       <c r="E16" t="n">
-        <v>251.1111111111111</v>
+        <v>294.4444444444445</v>
       </c>
       <c r="F16" t="n">
-        <v>220</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="G16" t="n">
         <v>156.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>148</v>
+        <v>121.6666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>165.3333333333333</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="J16" t="n">
         <v>90</v>
       </c>
       <c r="K16" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L16" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M16" t="n">
         <v>105.4545454545455</v>
       </c>
       <c r="N16" t="n">
-        <v>95.27272727272727</v>
+        <v>67.72727272727272</v>
       </c>
       <c r="O16" t="n">
-        <v>115.6363636363636</v>
+        <v>143.1818181818182</v>
       </c>
       <c r="P16" t="n">
         <v>104.0473847470741</v>
       </c>
       <c r="Q16" t="n">
-        <v>111.3928791944782</v>
+        <v>138.4293625366905</v>
       </c>
       <c r="R16" t="n">
-        <v>96.70189029967003</v>
+        <v>69.66540695745776</v>
       </c>
       <c r="S16" t="n">
         <v>42.5</v>
       </c>
       <c r="T16" t="n">
-        <v>24.16666666666667</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>60.83333333333333</v>
+        <v>84</v>
       </c>
       <c r="V16" t="n">
         <v>25</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1670,73 +1670,73 @@
         <v>46.66666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>33.88888888888889</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="C17" t="n">
-        <v>59.44444444444444</v>
+        <v>77.22222222222223</v>
       </c>
       <c r="D17" t="n">
         <v>244.4444444444445</v>
       </c>
       <c r="E17" t="n">
-        <v>260.8888888888889</v>
+        <v>305.5555555555555</v>
       </c>
       <c r="F17" t="n">
-        <v>228</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="G17" t="n">
         <v>164.4444444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>173.5555555555556</v>
+        <v>201.1111111111111</v>
       </c>
       <c r="I17" t="n">
-        <v>155.3333333333333</v>
+        <v>127.7777777777778</v>
       </c>
       <c r="J17" t="n">
         <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L17" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M17" t="n">
         <v>101.3636363636364</v>
       </c>
       <c r="N17" t="n">
-        <v>90.81818181818181</v>
+        <v>63.18181818181818</v>
       </c>
       <c r="O17" t="n">
-        <v>111.9090909090909</v>
+        <v>139.5454545454545</v>
       </c>
       <c r="P17" t="n">
         <v>100.9223303099008</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.45017765388894</v>
+        <v>70.0337196858535</v>
       </c>
       <c r="R17" t="n">
-        <v>107.3944829659126</v>
+        <v>131.810940933948</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
       </c>
       <c r="T17" t="n">
-        <v>33.33333333333333</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>66.66666666666667</v>
+        <v>95</v>
       </c>
       <c r="V17" t="n">
         <v>30</v>
       </c>
       <c r="W17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -1744,73 +1744,73 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>31.66666666666666</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>58.33333333333334</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="D18" t="n">
         <v>253.3333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>270.6666666666667</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="G18" t="n">
         <v>172.2222222222222</v>
       </c>
       <c r="H18" t="n">
-        <v>181.7777777777778</v>
+        <v>210.5555555555556</v>
       </c>
       <c r="I18" t="n">
-        <v>162.6666666666667</v>
+        <v>133.8888888888889</v>
       </c>
       <c r="J18" t="n">
         <v>92</v>
       </c>
       <c r="K18" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L18" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M18" t="n">
         <v>97.27272727272728</v>
       </c>
       <c r="N18" t="n">
-        <v>108.1818181818182</v>
+        <v>135.9090909090909</v>
       </c>
       <c r="O18" t="n">
-        <v>86.36363636363637</v>
+        <v>58.63636363636365</v>
       </c>
       <c r="P18" t="n">
         <v>98.07805424212235</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.4616857271759</v>
+        <v>124.6125801823364</v>
       </c>
       <c r="R18" t="n">
-        <v>92.69442275706882</v>
+        <v>71.54352830190827</v>
       </c>
       <c r="S18" t="n">
         <v>57.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42.5</v>
+        <v>15</v>
       </c>
       <c r="U18" t="n">
-        <v>72.5</v>
+        <v>100</v>
       </c>
       <c r="V18" t="n">
         <v>40</v>
       </c>
       <c r="W18" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -1818,73 +1818,73 @@
         <v>43.33333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>29.44444444444444</v>
+        <v>10.55555555555555</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22222222222221</v>
+        <v>76.11111111111111</v>
       </c>
       <c r="D19" t="n">
         <v>262.2222222222222</v>
       </c>
       <c r="E19" t="n">
-        <v>280.4444444444445</v>
+        <v>327.7777777777778</v>
       </c>
       <c r="F19" t="n">
-        <v>244</v>
+        <v>196.6666666666667</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
       </c>
       <c r="H19" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I19" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="J19" t="n">
         <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L19" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M19" t="n">
         <v>93.18181818181819</v>
       </c>
       <c r="N19" t="n">
-        <v>81.90909090909091</v>
+        <v>54.09090909090909</v>
       </c>
       <c r="O19" t="n">
-        <v>104.4545454545455</v>
+        <v>132.2727272727273</v>
       </c>
       <c r="P19" t="n">
         <v>95.14733287646054</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.9082966281891</v>
+        <v>123.1911878833746</v>
       </c>
       <c r="R19" t="n">
-        <v>89.38636912473201</v>
+        <v>67.10347786954645</v>
       </c>
       <c r="S19" t="n">
         <v>65</v>
       </c>
       <c r="T19" t="n">
-        <v>51.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="U19" t="n">
-        <v>78.33333333333333</v>
+        <v>105</v>
       </c>
       <c r="V19" t="n">
         <v>55</v>
       </c>
       <c r="W19" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -1892,73 +1892,73 @@
         <v>41.66666666666666</v>
       </c>
       <c r="B20" t="n">
-        <v>27.22222222222222</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="C20" t="n">
-        <v>56.11111111111111</v>
+        <v>75.55555555555554</v>
       </c>
       <c r="D20" t="n">
         <v>271.1111111111111</v>
       </c>
       <c r="E20" t="n">
-        <v>290.2222222222222</v>
+        <v>338.8888888888889</v>
       </c>
       <c r="F20" t="n">
-        <v>252</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
       </c>
       <c r="H20" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I20" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="L20" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="M20" t="n">
         <v>89.09090909090909</v>
       </c>
       <c r="N20" t="n">
-        <v>100.7272727272727</v>
+        <v>128.6363636363636</v>
       </c>
       <c r="O20" t="n">
-        <v>77.45454545454545</v>
+        <v>49.54545454545455</v>
       </c>
       <c r="P20" t="n">
         <v>98.24044002160164</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.44610843012799</v>
+        <v>66.06311365570707</v>
       </c>
       <c r="R20" t="n">
-        <v>105.0347716130753</v>
+        <v>130.4177663874962</v>
       </c>
       <c r="S20" t="n">
         <v>72.5</v>
       </c>
       <c r="T20" t="n">
-        <v>84.16666666666667</v>
+        <v>110</v>
       </c>
       <c r="U20" t="n">
-        <v>60.83333333333334</v>
+        <v>35</v>
       </c>
       <c r="V20" t="n">
         <v>55</v>
       </c>
       <c r="W20" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1966,73 +1966,73 @@
         <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D21" t="n">
         <v>280</v>
       </c>
       <c r="E21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F21" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G21" t="n">
         <v>185.7142857142857</v>
       </c>
       <c r="H21" t="n">
-        <v>196.4285714285714</v>
+        <v>227.8571428571429</v>
       </c>
       <c r="I21" t="n">
-        <v>175</v>
+        <v>143.5714285714286</v>
       </c>
       <c r="J21" t="n">
         <v>105</v>
       </c>
       <c r="K21" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L21" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M21" t="n">
         <v>85</v>
       </c>
       <c r="N21" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O21" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="P21" t="n">
         <v>99.24554826591358</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.68011997689754</v>
+        <v>63.98383510984944</v>
       </c>
       <c r="R21" t="n">
-        <v>106.8109765549296</v>
+        <v>134.5072614219777</v>
       </c>
       <c r="S21" t="n">
         <v>80</v>
       </c>
       <c r="T21" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="U21" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="V21" t="n">
         <v>64.28571428571429</v>
       </c>
       <c r="W21" t="n">
-        <v>47.42857142857143</v>
+        <v>18.14285714285715</v>
       </c>
       <c r="X21" t="n">
-        <v>81.14285714285715</v>
+        <v>110.4285714285714</v>
       </c>
     </row>
     <row r="22">
@@ -2040,73 +2040,73 @@
         <v>38</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D22" t="n">
         <v>290</v>
       </c>
       <c r="E22" t="n">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="F22" t="n">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="G22" t="n">
         <v>191.4285714285714</v>
       </c>
       <c r="H22" t="n">
-        <v>202.8571428571428</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="I22" t="n">
-        <v>180</v>
+        <v>147.1428571428571</v>
       </c>
       <c r="J22" t="n">
         <v>105</v>
       </c>
       <c r="K22" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L22" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M22" t="n">
         <v>85</v>
       </c>
       <c r="N22" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O22" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="P22" t="n">
         <v>98.05785369962447</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.09630834938112</v>
+        <v>61.21167229865107</v>
       </c>
       <c r="R22" t="n">
-        <v>106.0193990498678</v>
+        <v>134.9040351005979</v>
       </c>
       <c r="S22" t="n">
         <v>80</v>
       </c>
       <c r="T22" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="U22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="V22" t="n">
         <v>73.57142857142857</v>
       </c>
       <c r="W22" t="n">
-        <v>89.28571428571428</v>
+        <v>117.8571428571429</v>
       </c>
       <c r="X22" t="n">
-        <v>57.85714285714285</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="23">
@@ -2114,73 +2114,73 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D23" t="n">
         <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="F23" t="n">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="G23" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="H23" t="n">
-        <v>209.2857142857143</v>
+        <v>243.5714285714286</v>
       </c>
       <c r="I23" t="n">
-        <v>185</v>
+        <v>150.7142857142857</v>
       </c>
       <c r="J23" t="n">
         <v>107.7777777777778</v>
       </c>
       <c r="K23" t="n">
-        <v>101.5555555555555</v>
+        <v>83.1111111111111</v>
       </c>
       <c r="L23" t="n">
-        <v>114</v>
+        <v>132.4444444444444</v>
       </c>
       <c r="M23" t="n">
         <v>82.22222222222223</v>
       </c>
       <c r="N23" t="n">
-        <v>94.8888888888889</v>
+        <v>122.7777777777778</v>
       </c>
       <c r="O23" t="n">
-        <v>69.55555555555556</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="P23" t="n">
         <v>107.3354793320297</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.2602630685751</v>
+        <v>144.0346142782116</v>
       </c>
       <c r="R23" t="n">
-        <v>99.41069559548421</v>
+        <v>70.63634438584779</v>
       </c>
       <c r="S23" t="n">
         <v>90</v>
       </c>
       <c r="T23" t="n">
-        <v>79.71428571428571</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="U23" t="n">
-        <v>100.2857142857143</v>
+        <v>125.7142857142857</v>
       </c>
       <c r="V23" t="n">
         <v>82.85714285714286</v>
       </c>
       <c r="W23" t="n">
-        <v>97.42857142857143</v>
+        <v>125.2857142857143</v>
       </c>
       <c r="X23" t="n">
-        <v>68.28571428571429</v>
+        <v>40.42857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -2188,73 +2188,73 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D24" t="n">
         <v>310</v>
       </c>
       <c r="E24" t="n">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="F24" t="n">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="G24" t="n">
         <v>202.8571428571429</v>
       </c>
       <c r="H24" t="n">
-        <v>215.7142857142857</v>
+        <v>251.4285714285714</v>
       </c>
       <c r="I24" t="n">
-        <v>190</v>
+        <v>154.2857142857143</v>
       </c>
       <c r="J24" t="n">
         <v>110.5555555555556</v>
       </c>
       <c r="K24" t="n">
-        <v>104.1111111111111</v>
+        <v>85.22222222222223</v>
       </c>
       <c r="L24" t="n">
-        <v>117</v>
+        <v>135.8888888888889</v>
       </c>
       <c r="M24" t="n">
         <v>79.44444444444444</v>
       </c>
       <c r="N24" t="n">
-        <v>66.11111111111111</v>
+        <v>38.33333333333333</v>
       </c>
       <c r="O24" t="n">
-        <v>92.77777777777777</v>
+        <v>120.5555555555556</v>
       </c>
       <c r="P24" t="n">
         <v>94.2459630212382</v>
       </c>
       <c r="Q24" t="n">
-        <v>86.78544625744733</v>
+        <v>59.40389596607473</v>
       </c>
       <c r="R24" t="n">
-        <v>101.7064797850291</v>
+        <v>129.0880300764017</v>
       </c>
       <c r="S24" t="n">
         <v>100</v>
       </c>
       <c r="T24" t="n">
-        <v>110.5714285714286</v>
+        <v>136.4285714285714</v>
       </c>
       <c r="U24" t="n">
-        <v>89.42857142857143</v>
+        <v>63.57142857142857</v>
       </c>
       <c r="V24" t="n">
         <v>92.14285714285714</v>
       </c>
       <c r="W24" t="n">
-        <v>105.5714285714286</v>
+        <v>132.7142857142857</v>
       </c>
       <c r="X24" t="n">
-        <v>78.71428571428571</v>
+        <v>51.57142857142857</v>
       </c>
     </row>
     <row r="25">
@@ -2262,73 +2262,73 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D25" t="n">
         <v>320</v>
       </c>
       <c r="E25" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="F25" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G25" t="n">
         <v>208.5714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>222.1428571428572</v>
+        <v>259.2857142857143</v>
       </c>
       <c r="I25" t="n">
-        <v>195</v>
+        <v>157.8571428571429</v>
       </c>
       <c r="J25" t="n">
         <v>113.3333333333333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.6666666666667</v>
+        <v>87.33333333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>120</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="M25" t="n">
         <v>76.66666666666667</v>
       </c>
       <c r="N25" t="n">
-        <v>90.66666666666667</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="O25" t="n">
-        <v>62.66666666666667</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="P25" t="n">
         <v>102.0528350973527</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.41623039372105</v>
+        <v>70.50641628282609</v>
       </c>
       <c r="R25" t="n">
-        <v>108.6894398009843</v>
+        <v>133.5992539118793</v>
       </c>
       <c r="S25" t="n">
         <v>110</v>
       </c>
       <c r="T25" t="n">
-        <v>99.14285714285714</v>
+        <v>72.85714285714286</v>
       </c>
       <c r="U25" t="n">
-        <v>120.8571428571429</v>
+        <v>147.1428571428571</v>
       </c>
       <c r="V25" t="n">
         <v>101.4285714285714</v>
       </c>
       <c r="W25" t="n">
-        <v>89.14285714285714</v>
+        <v>62.71428571428572</v>
       </c>
       <c r="X25" t="n">
-        <v>113.7142857142857</v>
+        <v>140.1428571428571</v>
       </c>
     </row>
     <row r="26">
@@ -2336,73 +2336,73 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
         <v>325</v>
       </c>
       <c r="E26" t="n">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="F26" t="n">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="G26" t="n">
         <v>214.2857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>228.5714285714286</v>
+        <v>267.1428571428571</v>
       </c>
       <c r="I26" t="n">
-        <v>200</v>
+        <v>161.4285714285714</v>
       </c>
       <c r="J26" t="n">
         <v>116.1111111111111</v>
       </c>
       <c r="K26" t="n">
-        <v>109.2222222222222</v>
+        <v>89.44444444444444</v>
       </c>
       <c r="L26" t="n">
-        <v>123</v>
+        <v>142.7777777777778</v>
       </c>
       <c r="M26" t="n">
         <v>73.88888888888889</v>
       </c>
       <c r="N26" t="n">
-        <v>59.22222222222222</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="O26" t="n">
-        <v>88.55555555555556</v>
+        <v>116.1111111111111</v>
       </c>
       <c r="P26" t="n">
         <v>112.2051117979527</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.6316359118486</v>
+        <v>84.91120825353624</v>
       </c>
       <c r="R26" t="n">
-        <v>117.7785876840568</v>
+        <v>139.4990153423692</v>
       </c>
       <c r="S26" t="n">
         <v>120</v>
       </c>
       <c r="T26" t="n">
-        <v>131.1428571428571</v>
+        <v>157.8571428571429</v>
       </c>
       <c r="U26" t="n">
-        <v>108.8571428571429</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="V26" t="n">
         <v>110.7142857142857</v>
       </c>
       <c r="W26" t="n">
-        <v>99.57142857142858</v>
+        <v>73.85714285714286</v>
       </c>
       <c r="X26" t="n">
-        <v>121.8571428571429</v>
+        <v>147.5714285714286</v>
       </c>
     </row>
     <row r="27">
@@ -2410,73 +2410,73 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D27" t="n">
         <v>320</v>
       </c>
       <c r="E27" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="F27" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G27" t="n">
         <v>220</v>
       </c>
       <c r="H27" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="I27" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="J27" t="n">
         <v>118.8888888888889</v>
       </c>
       <c r="K27" t="n">
-        <v>111.7777777777778</v>
+        <v>91.55555555555556</v>
       </c>
       <c r="L27" t="n">
-        <v>126</v>
+        <v>146.2222222222222</v>
       </c>
       <c r="M27" t="n">
         <v>71.11111111111111</v>
       </c>
       <c r="N27" t="n">
-        <v>86.44444444444444</v>
+        <v>113.8888888888889</v>
       </c>
       <c r="O27" t="n">
-        <v>55.77777777777779</v>
+        <v>28.33333333333334</v>
       </c>
       <c r="P27" t="n">
         <v>106.036000023182</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.4625241370779</v>
+        <v>78.74209647876559</v>
       </c>
       <c r="R27" t="n">
-        <v>111.6094759092862</v>
+        <v>133.3299035675985</v>
       </c>
       <c r="S27" t="n">
         <v>130</v>
       </c>
       <c r="T27" t="n">
-        <v>118.5714285714286</v>
+        <v>91.42857142857143</v>
       </c>
       <c r="U27" t="n">
-        <v>141.4285714285714</v>
+        <v>168.5714285714286</v>
       </c>
       <c r="V27" t="n">
         <v>120</v>
       </c>
       <c r="W27" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="X27" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -2484,73 +2484,73 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D28" t="n">
         <v>310</v>
       </c>
       <c r="E28" t="n">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="F28" t="n">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="G28" t="n">
         <v>220</v>
       </c>
       <c r="H28" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="I28" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="J28" t="n">
         <v>121.6666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>129</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>114.3333333333333</v>
+        <v>93.66666666666666</v>
       </c>
       <c r="M28" t="n">
         <v>68.33333333333334</v>
       </c>
       <c r="N28" t="n">
-        <v>52.33333333333334</v>
+        <v>25.00000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>84.33333333333334</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="P28" t="n">
         <v>123.4514533711045</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.0880580747361</v>
+        <v>154.997872185631</v>
       </c>
       <c r="R28" t="n">
-        <v>116.8148486674728</v>
+        <v>91.90503455657789</v>
       </c>
       <c r="S28" t="n">
         <v>140</v>
       </c>
       <c r="T28" t="n">
-        <v>151.7142857142857</v>
+        <v>179.2857142857143</v>
       </c>
       <c r="U28" t="n">
-        <v>128.2857142857143</v>
+        <v>100.7142857142857</v>
       </c>
       <c r="V28" t="n">
         <v>120</v>
       </c>
       <c r="W28" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="X28" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -2558,73 +2558,73 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D29" t="n">
         <v>300</v>
       </c>
       <c r="E29" t="n">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="F29" t="n">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="G29" t="n">
         <v>214.5454545454545</v>
       </c>
       <c r="H29" t="n">
-        <v>229.0909090909091</v>
+        <v>268.1818181818182</v>
       </c>
       <c r="I29" t="n">
-        <v>200</v>
+        <v>160.9090909090909</v>
       </c>
       <c r="J29" t="n">
         <v>124.4444444444444</v>
       </c>
       <c r="K29" t="n">
-        <v>116.8888888888889</v>
+        <v>95.77777777777777</v>
       </c>
       <c r="L29" t="n">
-        <v>132</v>
+        <v>153.1111111111111</v>
       </c>
       <c r="M29" t="n">
         <v>65.55555555555556</v>
       </c>
       <c r="N29" t="n">
-        <v>48.88888888888889</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="O29" t="n">
-        <v>82.22222222222223</v>
+        <v>109.4444444444444</v>
       </c>
       <c r="P29" t="n">
         <v>122.5351834300446</v>
       </c>
       <c r="Q29" t="n">
-        <v>129.9957001938355</v>
+        <v>157.3772504852081</v>
       </c>
       <c r="R29" t="n">
-        <v>115.0746666662538</v>
+        <v>87.69311637488117</v>
       </c>
       <c r="S29" t="n">
         <v>150</v>
       </c>
       <c r="T29" t="n">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="U29" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="V29" t="n">
         <v>145.7142857142857</v>
       </c>
       <c r="W29" t="n">
-        <v>157.8571428571429</v>
+        <v>185.7142857142857</v>
       </c>
       <c r="X29" t="n">
-        <v>133.5714285714286</v>
+        <v>105.7142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -2632,73 +2632,73 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D30" t="n">
         <v>285</v>
       </c>
       <c r="E30" t="n">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="F30" t="n">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="G30" t="n">
         <v>209.0909090909091</v>
       </c>
       <c r="H30" t="n">
-        <v>223.1818181818182</v>
+        <v>261.3636363636364</v>
       </c>
       <c r="I30" t="n">
-        <v>195</v>
+        <v>156.8181818181818</v>
       </c>
       <c r="J30" t="n">
         <v>127.2222222222222</v>
       </c>
       <c r="K30" t="n">
-        <v>135</v>
+        <v>156.5555555555556</v>
       </c>
       <c r="L30" t="n">
-        <v>119.4444444444445</v>
+        <v>97.8888888888889</v>
       </c>
       <c r="M30" t="n">
         <v>62.77777777777778</v>
       </c>
       <c r="N30" t="n">
-        <v>45.44444444444444</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="O30" t="n">
-        <v>80.11111111111111</v>
+        <v>107.2222222222222</v>
       </c>
       <c r="P30" t="n">
         <v>120.8224392477091</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.8976555111637</v>
+        <v>84.12330430152724</v>
       </c>
       <c r="R30" t="n">
-        <v>128.7472229842546</v>
+        <v>157.521574193891</v>
       </c>
       <c r="S30" t="n">
         <v>150</v>
       </c>
       <c r="T30" t="n">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="U30" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="V30" t="n">
         <v>171.4285714285714</v>
       </c>
       <c r="W30" t="n">
-        <v>157.1428571428572</v>
+        <v>126.4285714285714</v>
       </c>
       <c r="X30" t="n">
-        <v>185.7142857142857</v>
+        <v>216.4285714285714</v>
       </c>
     </row>
     <row r="31">
@@ -2706,73 +2706,73 @@
         <v>45</v>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D31" t="n">
         <v>270</v>
       </c>
       <c r="E31" t="n">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G31" t="n">
         <v>203.6363636363636</v>
       </c>
       <c r="H31" t="n">
-        <v>217.2727272727273</v>
+        <v>254.5454545454545</v>
       </c>
       <c r="I31" t="n">
-        <v>190</v>
+        <v>152.7272727272727</v>
       </c>
       <c r="J31" t="n">
         <v>130</v>
       </c>
       <c r="K31" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="M31" t="n">
         <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="P31" t="n">
         <v>126.3871869731721</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.3487323234155</v>
+        <v>163.2333683741455</v>
       </c>
       <c r="R31" t="n">
-        <v>118.4256416229288</v>
+        <v>89.54100557219873</v>
       </c>
       <c r="S31" t="n">
         <v>164.2857142857143</v>
       </c>
       <c r="T31" t="n">
-        <v>151.1428571428571</v>
+        <v>121.4285714285714</v>
       </c>
       <c r="U31" t="n">
-        <v>177.4285714285714</v>
+        <v>207.1428571428571</v>
       </c>
       <c r="V31" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="W31" t="n">
-        <v>213.5714285714286</v>
+        <v>247.1428571428571</v>
       </c>
       <c r="X31" t="n">
-        <v>180.7142857142857</v>
+        <v>147.1428571428571</v>
       </c>
     </row>
     <row r="32">
@@ -2780,73 +2780,73 @@
         <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D32" t="n">
         <v>270</v>
       </c>
       <c r="E32" t="n">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G32" t="n">
         <v>198.1818181818182</v>
       </c>
       <c r="H32" t="n">
-        <v>211.3636363636364</v>
+        <v>247.7272727272727</v>
       </c>
       <c r="I32" t="n">
-        <v>185</v>
+        <v>148.6363636363636</v>
       </c>
       <c r="J32" t="n">
         <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="L32" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="P32" t="n">
         <v>121.8746619521254</v>
       </c>
       <c r="Q32" t="n">
-        <v>129.4400902411415</v>
+        <v>157.1363751081896</v>
       </c>
       <c r="R32" t="n">
-        <v>114.3092336631094</v>
+        <v>86.61294879606127</v>
       </c>
       <c r="S32" t="n">
         <v>178.5714285714286</v>
       </c>
       <c r="T32" t="n">
-        <v>164.2857142857143</v>
+        <v>132.8571428571429</v>
       </c>
       <c r="U32" t="n">
-        <v>192.8571428571429</v>
+        <v>224.2857142857143</v>
       </c>
       <c r="V32" t="n">
         <v>222.8571428571429</v>
       </c>
       <c r="W32" t="n">
-        <v>241.4285714285714</v>
+        <v>277.8571428571429</v>
       </c>
       <c r="X32" t="n">
-        <v>204.2857142857143</v>
+        <v>167.8571428571429</v>
       </c>
     </row>
     <row r="33">
@@ -2854,73 +2854,73 @@
         <v>46.66666666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>35.11111111111111</v>
+        <v>17.55555555555555</v>
       </c>
       <c r="C33" t="n">
-        <v>58.22222222222222</v>
+        <v>75.77777777777777</v>
       </c>
       <c r="D33" t="n">
         <v>264.4444444444445</v>
       </c>
       <c r="E33" t="n">
-        <v>283.8888888888889</v>
+        <v>328.3333333333334</v>
       </c>
       <c r="F33" t="n">
-        <v>245</v>
+        <v>200.5555555555556</v>
       </c>
       <c r="G33" t="n">
         <v>192.7272727272727</v>
       </c>
       <c r="H33" t="n">
-        <v>205.4545454545454</v>
+        <v>240.9090909090909</v>
       </c>
       <c r="I33" t="n">
-        <v>180</v>
+        <v>144.5454545454545</v>
       </c>
       <c r="J33" t="n">
         <v>133.3333333333333</v>
       </c>
       <c r="K33" t="n">
-        <v>141.5555555555556</v>
+        <v>164.2222222222222</v>
       </c>
       <c r="L33" t="n">
-        <v>125.1111111111111</v>
+        <v>102.4444444444445</v>
       </c>
       <c r="M33" t="n">
         <v>63.33333333333334</v>
       </c>
       <c r="N33" t="n">
-        <v>46.22222222222223</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="O33" t="n">
-        <v>80.44444444444444</v>
+        <v>107.2222222222222</v>
       </c>
       <c r="P33" t="n">
         <v>117.5214203502953</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7270887588217</v>
+        <v>85.3440939844007</v>
       </c>
       <c r="R33" t="n">
-        <v>124.315751941769</v>
+        <v>149.6987467161899</v>
       </c>
       <c r="S33" t="n">
         <v>192.8571428571429</v>
       </c>
       <c r="T33" t="n">
-        <v>208.2857142857143</v>
+        <v>241.4285714285714</v>
       </c>
       <c r="U33" t="n">
-        <v>177.4285714285714</v>
+        <v>144.2857142857143</v>
       </c>
       <c r="V33" t="n">
         <v>248.5714285714286</v>
       </c>
       <c r="W33" t="n">
-        <v>269.2857142857143</v>
+        <v>308.5714285714286</v>
       </c>
       <c r="X33" t="n">
-        <v>227.8571428571429</v>
+        <v>188.5714285714286</v>
       </c>
     </row>
     <row r="34">
@@ -2928,73 +2928,73 @@
         <v>48.33333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>37.22222222222223</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="C34" t="n">
-        <v>59.44444444444444</v>
+        <v>76.55555555555556</v>
       </c>
       <c r="D34" t="n">
         <v>258.8888888888889</v>
       </c>
       <c r="E34" t="n">
-        <v>277.7777777777778</v>
+        <v>321.6666666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>240</v>
+        <v>196.1111111111111</v>
       </c>
       <c r="G34" t="n">
         <v>187.2727272727273</v>
       </c>
       <c r="H34" t="n">
-        <v>199.5454545454546</v>
+        <v>234.0909090909091</v>
       </c>
       <c r="I34" t="n">
-        <v>175</v>
+        <v>140.4545454545455</v>
       </c>
       <c r="J34" t="n">
         <v>136.6666666666667</v>
       </c>
       <c r="K34" t="n">
-        <v>128.2222222222222</v>
+        <v>104.8888888888889</v>
       </c>
       <c r="L34" t="n">
-        <v>145.1111111111111</v>
+        <v>168.4444444444444</v>
       </c>
       <c r="M34" t="n">
         <v>66.66666666666667</v>
       </c>
       <c r="N34" t="n">
-        <v>50.44444444444445</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="O34" t="n">
-        <v>82.88888888888889</v>
+        <v>109.4444444444445</v>
       </c>
       <c r="P34" t="n">
         <v>128.363264422933</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.1242281746615</v>
+        <v>156.4071194298471</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6023006712044</v>
+        <v>100.3194094160189</v>
       </c>
       <c r="S34" t="n">
         <v>207.1428571428571</v>
       </c>
       <c r="T34" t="n">
-        <v>223.7142857142857</v>
+        <v>258.5714285714286</v>
       </c>
       <c r="U34" t="n">
-        <v>190.5714285714286</v>
+        <v>155.7142857142857</v>
       </c>
       <c r="V34" t="n">
         <v>274.2857142857143</v>
       </c>
       <c r="W34" t="n">
-        <v>297.1428571428571</v>
+        <v>339.2857142857143</v>
       </c>
       <c r="X34" t="n">
-        <v>251.4285714285714</v>
+        <v>209.2857142857143</v>
       </c>
     </row>
     <row r="35">
@@ -3002,73 +3002,73 @@
         <v>50</v>
       </c>
       <c r="B35" t="n">
-        <v>39.33333333333334</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="C35" t="n">
-        <v>60.66666666666666</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="D35" t="n">
         <v>253.3333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>271.6666666666667</v>
+        <v>315</v>
       </c>
       <c r="F35" t="n">
-        <v>235</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="G35" t="n">
         <v>181.8181818181818</v>
       </c>
       <c r="H35" t="n">
-        <v>193.6363636363636</v>
+        <v>227.2727272727273</v>
       </c>
       <c r="I35" t="n">
-        <v>170</v>
+        <v>136.3636363636364</v>
       </c>
       <c r="J35" t="n">
         <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>148.6666666666667</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>131.3333333333333</v>
+        <v>107.3333333333333</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>85.33333333333333</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="O35" t="n">
-        <v>54.66666666666666</v>
+        <v>28.33333333333334</v>
       </c>
       <c r="P35" t="n">
         <v>127.0180787558204</v>
       </c>
       <c r="Q35" t="n">
-        <v>132.4017102408739</v>
+        <v>153.5526046960344</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6344472707668</v>
+        <v>100.4835528156063</v>
       </c>
       <c r="S35" t="n">
         <v>221.4285714285714</v>
       </c>
       <c r="T35" t="n">
-        <v>239.1428571428572</v>
+        <v>275.7142857142857</v>
       </c>
       <c r="U35" t="n">
-        <v>203.7142857142857</v>
+        <v>167.1428571428572</v>
       </c>
       <c r="V35" t="n">
         <v>300</v>
       </c>
       <c r="W35" t="n">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="X35" t="n">
-        <v>275</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
@@ -3076,73 +3076,73 @@
         <v>51.66666666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>41.44444444444444</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="C36" t="n">
-        <v>61.88888888888889</v>
+        <v>78.11111111111111</v>
       </c>
       <c r="D36" t="n">
         <v>247.7777777777778</v>
       </c>
       <c r="E36" t="n">
-        <v>265.5555555555555</v>
+        <v>308.3333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>230</v>
+        <v>187.2222222222222</v>
       </c>
       <c r="G36" t="n">
         <v>176.3636363636364</v>
       </c>
       <c r="H36" t="n">
-        <v>165</v>
+        <v>132.2727272727273</v>
       </c>
       <c r="I36" t="n">
-        <v>187.7272727272727</v>
+        <v>220.4545454545455</v>
       </c>
       <c r="J36" t="n">
         <v>143.3333333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>134.4444444444445</v>
+        <v>109.7777777777778</v>
       </c>
       <c r="L36" t="n">
-        <v>152.2222222222222</v>
+        <v>176.8888888888889</v>
       </c>
       <c r="M36" t="n">
         <v>73.33333333333333</v>
       </c>
       <c r="N36" t="n">
-        <v>87.77777777777777</v>
+        <v>113.8888888888889</v>
       </c>
       <c r="O36" t="n">
-        <v>58.88888888888889</v>
+        <v>32.77777777777777</v>
       </c>
       <c r="P36" t="n">
         <v>120.2956331009617</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.8234804449499</v>
+        <v>89.40702247691442</v>
       </c>
       <c r="R36" t="n">
-        <v>126.7677857569735</v>
+        <v>151.1842437250089</v>
       </c>
       <c r="S36" t="n">
         <v>235.7142857142857</v>
       </c>
       <c r="T36" t="n">
-        <v>254.5714285714286</v>
+        <v>292.8571428571429</v>
       </c>
       <c r="U36" t="n">
-        <v>216.8571428571429</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="V36" t="n">
         <v>320</v>
       </c>
       <c r="W36" t="n">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="X36" t="n">
-        <v>292</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37">
@@ -3150,73 +3150,73 @@
         <v>53.33333333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>43.55555555555556</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="C37" t="n">
-        <v>63.11111111111111</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="D37" t="n">
         <v>242.2222222222222</v>
       </c>
       <c r="E37" t="n">
-        <v>259.4444444444445</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>225</v>
+        <v>182.7777777777778</v>
       </c>
       <c r="G37" t="n">
         <v>170.9090909090909</v>
       </c>
       <c r="H37" t="n">
-        <v>160</v>
+        <v>128.1818181818182</v>
       </c>
       <c r="I37" t="n">
-        <v>181.8181818181818</v>
+        <v>213.6363636363636</v>
       </c>
       <c r="J37" t="n">
         <v>146.6666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>137.5555555555555</v>
+        <v>112.2222222222222</v>
       </c>
       <c r="L37" t="n">
-        <v>155.7777777777778</v>
+        <v>181.1111111111111</v>
       </c>
       <c r="M37" t="n">
         <v>76.66666666666667</v>
       </c>
       <c r="N37" t="n">
-        <v>90.22222222222223</v>
+        <v>116.1111111111111</v>
       </c>
       <c r="O37" t="n">
-        <v>63.11111111111111</v>
+        <v>37.22222222222223</v>
       </c>
       <c r="P37" t="n">
         <v>116.3984726687955</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.0529782213915</v>
+        <v>82.01649487917919</v>
       </c>
       <c r="R37" t="n">
-        <v>123.7439671161996</v>
+        <v>150.7804504584119</v>
       </c>
       <c r="S37" t="n">
         <v>250</v>
       </c>
       <c r="T37" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="U37" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="V37" t="n">
         <v>350</v>
       </c>
       <c r="W37" t="n">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="X37" t="n">
-        <v>318</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -3224,73 +3224,73 @@
         <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>45.66666666666666</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>64.33333333333333</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="D38" t="n">
         <v>236.6666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>253.3333333333333</v>
+        <v>295</v>
       </c>
       <c r="F38" t="n">
-        <v>220</v>
+        <v>178.3333333333333</v>
       </c>
       <c r="G38" t="n">
         <v>165.4545454545455</v>
       </c>
       <c r="H38" t="n">
-        <v>175.9090909090909</v>
+        <v>206.8181818181818</v>
       </c>
       <c r="I38" t="n">
-        <v>155</v>
+        <v>124.0909090909091</v>
       </c>
       <c r="J38" t="n">
         <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>140.6666666666667</v>
+        <v>114.6666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>159.3333333333333</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="M38" t="n">
         <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>67.33333333333333</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="O38" t="n">
-        <v>92.66666666666667</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="P38" t="n">
         <v>102.2316566979808</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.1076602570908</v>
+        <v>138.7356709344207</v>
       </c>
       <c r="R38" t="n">
-        <v>94.35565313887082</v>
+        <v>65.72764246154088</v>
       </c>
       <c r="S38" t="n">
         <v>250</v>
       </c>
       <c r="T38" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="U38" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="V38" t="n">
         <v>380</v>
       </c>
       <c r="W38" t="n">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X38" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -3298,73 +3298,73 @@
         <v>56.66666666666667</v>
       </c>
       <c r="B39" t="n">
-        <v>47.77777777777779</v>
+        <v>32.88888888888889</v>
       </c>
       <c r="C39" t="n">
-        <v>65.55555555555556</v>
+        <v>80.44444444444446</v>
       </c>
       <c r="D39" t="n">
         <v>231.1111111111111</v>
       </c>
       <c r="E39" t="n">
-        <v>247.2222222222222</v>
+        <v>288.3333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>215</v>
+        <v>173.8888888888889</v>
       </c>
       <c r="G39" t="n">
         <v>160</v>
       </c>
       <c r="H39" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I39" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J39" t="n">
         <v>153.3333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>143.7777777777778</v>
+        <v>117.1111111111111</v>
       </c>
       <c r="L39" t="n">
-        <v>162.8888888888889</v>
+        <v>189.5555555555556</v>
       </c>
       <c r="M39" t="n">
         <v>83.33333333333334</v>
       </c>
       <c r="N39" t="n">
-        <v>71.55555555555557</v>
+        <v>46.11111111111112</v>
       </c>
       <c r="O39" t="n">
-        <v>95.11111111111111</v>
+        <v>120.5555555555556</v>
       </c>
       <c r="P39" t="n">
         <v>104.8669093592646</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.8530466981122</v>
+        <v>141.811458714655</v>
       </c>
       <c r="R39" t="n">
-        <v>96.880772020417</v>
+        <v>67.92236000387422</v>
       </c>
       <c r="S39" t="n">
         <v>260</v>
       </c>
       <c r="T39" t="n">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="U39" t="n">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="V39" t="n">
         <v>400</v>
       </c>
       <c r="W39" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="X39" t="n">
-        <v>362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
@@ -3372,73 +3372,73 @@
         <v>58.33333333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>49.88888888888889</v>
+        <v>35.44444444444444</v>
       </c>
       <c r="C40" t="n">
-        <v>66.77777777777779</v>
+        <v>81.22222222222223</v>
       </c>
       <c r="D40" t="n">
         <v>225.5555555555555</v>
       </c>
       <c r="E40" t="n">
-        <v>241.1111111111111</v>
+        <v>281.6666666666666</v>
       </c>
       <c r="F40" t="n">
-        <v>210</v>
+        <v>169.4444444444444</v>
       </c>
       <c r="G40" t="n">
         <v>160</v>
       </c>
       <c r="H40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I40" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J40" t="n">
         <v>156.6666666666667</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4444444444444</v>
+        <v>193.7777777777778</v>
       </c>
       <c r="L40" t="n">
-        <v>146.8888888888889</v>
+        <v>119.5555555555555</v>
       </c>
       <c r="M40" t="n">
         <v>86.66666666666667</v>
       </c>
       <c r="N40" t="n">
-        <v>75.77777777777779</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="O40" t="n">
-        <v>97.55555555555556</v>
+        <v>122.7777777777778</v>
       </c>
       <c r="P40" t="n">
         <v>102.9458351799008</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.6056330990198</v>
+        <v>138.5850268563768</v>
       </c>
       <c r="R40" t="n">
-        <v>95.28603726078182</v>
+        <v>67.30664350342482</v>
       </c>
       <c r="S40" t="n">
         <v>270</v>
       </c>
       <c r="T40" t="n">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="U40" t="n">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="V40" t="n">
         <v>420</v>
       </c>
       <c r="W40" t="n">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="X40" t="n">
-        <v>380</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
@@ -3446,73 +3446,73 @@
         <v>60</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C41" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D41" t="n">
         <v>220</v>
       </c>
       <c r="E41" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F41" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="G41" t="n">
         <v>155</v>
       </c>
       <c r="H41" t="n">
-        <v>145.4545454545455</v>
+        <v>116.3636363636364</v>
       </c>
       <c r="I41" t="n">
-        <v>164.5454545454545</v>
+        <v>193.6363636363636</v>
       </c>
       <c r="J41" t="n">
         <v>160</v>
       </c>
       <c r="K41" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="L41" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M41" t="n">
         <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O41" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P41" t="n">
         <v>102.9855294356715</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.9302146215948</v>
+        <v>135.764270179365</v>
       </c>
       <c r="R41" t="n">
-        <v>96.04084424974812</v>
+        <v>70.20678869197801</v>
       </c>
       <c r="S41" t="n">
         <v>280</v>
       </c>
       <c r="T41" t="n">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="U41" t="n">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="V41" t="n">
         <v>440</v>
       </c>
       <c r="W41" t="n">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="X41" t="n">
-        <v>398</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
@@ -3520,73 +3520,73 @@
         <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D42" t="n">
         <v>220</v>
       </c>
       <c r="E42" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F42" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="G42" t="n">
         <v>150</v>
       </c>
       <c r="H42" t="n">
-        <v>140.9090909090909</v>
+        <v>112.7272727272727</v>
       </c>
       <c r="I42" t="n">
-        <v>159.0909090909091</v>
+        <v>187.2727272727273</v>
       </c>
       <c r="J42" t="n">
         <v>160</v>
       </c>
       <c r="K42" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="L42" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M42" t="n">
         <v>90</v>
       </c>
       <c r="N42" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="O42" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P42" t="n">
         <v>105.8210061736785</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.87568151960762</v>
+        <v>77.03970755739502</v>
       </c>
       <c r="R42" t="n">
-        <v>111.7663308277493</v>
+        <v>134.6023047899619</v>
       </c>
       <c r="S42" t="n">
         <v>290</v>
       </c>
       <c r="T42" t="n">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="U42" t="n">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="V42" t="n">
         <v>450</v>
       </c>
       <c r="W42" t="n">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="X42" t="n">
-        <v>405</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
@@ -3594,73 +3594,73 @@
         <v>61.66666666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>54</v>
+        <v>40.11111111111111</v>
       </c>
       <c r="C43" t="n">
-        <v>69.33333333333333</v>
+        <v>83.22222222222223</v>
       </c>
       <c r="D43" t="n">
         <v>214.4444444444445</v>
       </c>
       <c r="E43" t="n">
-        <v>228.8888888888889</v>
+        <v>267.7777777777778</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>161.1111111111111</v>
       </c>
       <c r="G43" t="n">
         <v>145</v>
       </c>
       <c r="H43" t="n">
-        <v>153.6363636363636</v>
+        <v>180.9090909090909</v>
       </c>
       <c r="I43" t="n">
-        <v>136.3636363636364</v>
+        <v>109.0909090909091</v>
       </c>
       <c r="J43" t="n">
         <v>157.7777777777778</v>
       </c>
       <c r="K43" t="n">
-        <v>167.4444444444444</v>
+        <v>195.1111111111111</v>
       </c>
       <c r="L43" t="n">
-        <v>148.1111111111111</v>
+        <v>120.4444444444444</v>
       </c>
       <c r="M43" t="n">
         <v>93.33333333333333</v>
       </c>
       <c r="N43" t="n">
-        <v>83.77777777777777</v>
+        <v>59.11111111111111</v>
       </c>
       <c r="O43" t="n">
-        <v>102.8888888888889</v>
+        <v>127.5555555555555</v>
       </c>
       <c r="P43" t="n">
         <v>94.10287497103437</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.2950856309765</v>
+        <v>119.8717176108029</v>
       </c>
       <c r="R43" t="n">
-        <v>88.91066431109223</v>
+        <v>68.33403233126583</v>
       </c>
       <c r="S43" t="n">
         <v>300</v>
       </c>
       <c r="T43" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="U43" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="V43" t="n">
         <v>440</v>
       </c>
       <c r="W43" t="n">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="X43" t="n">
-        <v>398</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
@@ -3668,73 +3668,73 @@
         <v>63.33333333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>56</v>
+        <v>42.22222222222223</v>
       </c>
       <c r="C44" t="n">
-        <v>70.66666666666667</v>
+        <v>84.44444444444444</v>
       </c>
       <c r="D44" t="n">
         <v>208.8888888888889</v>
       </c>
       <c r="E44" t="n">
-        <v>222.7777777777778</v>
+        <v>260.5555555555555</v>
       </c>
       <c r="F44" t="n">
-        <v>195</v>
+        <v>157.2222222222222</v>
       </c>
       <c r="G44" t="n">
         <v>140</v>
       </c>
       <c r="H44" t="n">
-        <v>131.8181818181818</v>
+        <v>105.4545454545455</v>
       </c>
       <c r="I44" t="n">
-        <v>148.1818181818182</v>
+        <v>174.5454545454546</v>
       </c>
       <c r="J44" t="n">
         <v>155.5555555555555</v>
       </c>
       <c r="K44" t="n">
-        <v>146.2222222222222</v>
+        <v>118.8888888888889</v>
       </c>
       <c r="L44" t="n">
-        <v>164.8888888888889</v>
+        <v>192.2222222222222</v>
       </c>
       <c r="M44" t="n">
         <v>96.66666666666667</v>
       </c>
       <c r="N44" t="n">
-        <v>105.7777777777778</v>
+        <v>130.1111111111111</v>
       </c>
       <c r="O44" t="n">
-        <v>87.55555555555556</v>
+        <v>63.22222222222223</v>
       </c>
       <c r="P44" t="n">
         <v>91.47532062415817</v>
       </c>
       <c r="Q44" t="n">
-        <v>85.1736694068055</v>
+        <v>61.26871575474748</v>
       </c>
       <c r="R44" t="n">
-        <v>97.77697184151084</v>
+        <v>121.6819254935689</v>
       </c>
       <c r="S44" t="n">
         <v>300</v>
       </c>
       <c r="T44" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="U44" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="V44" t="n">
         <v>420</v>
       </c>
       <c r="W44" t="n">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="X44" t="n">
-        <v>380</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
@@ -3742,73 +3742,73 @@
         <v>65</v>
       </c>
       <c r="B45" t="n">
-        <v>58</v>
+        <v>44.33333333333333</v>
       </c>
       <c r="C45" t="n">
-        <v>72</v>
+        <v>85.66666666666667</v>
       </c>
       <c r="D45" t="n">
         <v>203.3333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>216.6666666666667</v>
+        <v>253.3333333333333</v>
       </c>
       <c r="F45" t="n">
-        <v>190</v>
+        <v>153.3333333333333</v>
       </c>
       <c r="G45" t="n">
         <v>135</v>
       </c>
       <c r="H45" t="n">
-        <v>127.2727272727273</v>
+        <v>101.8181818181818</v>
       </c>
       <c r="I45" t="n">
-        <v>142.7272727272727</v>
+        <v>168.1818181818182</v>
       </c>
       <c r="J45" t="n">
         <v>153.3333333333333</v>
       </c>
       <c r="K45" t="n">
-        <v>144.3333333333333</v>
+        <v>117.3333333333333</v>
       </c>
       <c r="L45" t="n">
-        <v>162.3333333333333</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>108.6666666666667</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="O45" t="n">
-        <v>91.33333333333333</v>
+        <v>67.33333333333334</v>
       </c>
       <c r="P45" t="n">
         <v>99.78575470975704</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.5649207185311</v>
+        <v>65.90241874485328</v>
       </c>
       <c r="R45" t="n">
-        <v>107.006588700983</v>
+        <v>133.6690906746608</v>
       </c>
       <c r="S45" t="n">
         <v>282.8571428571428</v>
       </c>
       <c r="T45" t="n">
-        <v>306.4285714285714</v>
+        <v>354.2857142857143</v>
       </c>
       <c r="U45" t="n">
-        <v>259.2857142857143</v>
+        <v>211.4285714285714</v>
       </c>
       <c r="V45" t="n">
         <v>380</v>
       </c>
       <c r="W45" t="n">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X45" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46">
@@ -3816,73 +3816,73 @@
         <v>66.66666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>60.00000000000001</v>
+        <v>46.44444444444445</v>
       </c>
       <c r="C46" t="n">
-        <v>73.33333333333334</v>
+        <v>86.88888888888889</v>
       </c>
       <c r="D46" t="n">
         <v>197.7777777777778</v>
       </c>
       <c r="E46" t="n">
-        <v>210.5555555555555</v>
+        <v>246.1111111111111</v>
       </c>
       <c r="F46" t="n">
-        <v>185</v>
+        <v>149.4444444444444</v>
       </c>
       <c r="G46" t="n">
         <v>130</v>
       </c>
       <c r="H46" t="n">
-        <v>122.7272727272727</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="I46" t="n">
-        <v>137.2727272727273</v>
+        <v>161.8181818181818</v>
       </c>
       <c r="J46" t="n">
         <v>151.1111111111111</v>
       </c>
       <c r="K46" t="n">
-        <v>159.7777777777778</v>
+        <v>186.4444444444445</v>
       </c>
       <c r="L46" t="n">
-        <v>142.4444444444445</v>
+        <v>115.7777777777778</v>
       </c>
       <c r="M46" t="n">
         <v>103.3333333333333</v>
       </c>
       <c r="N46" t="n">
-        <v>95.11111111111111</v>
+        <v>71.44444444444444</v>
       </c>
       <c r="O46" t="n">
-        <v>111.5555555555555</v>
+        <v>135.2222222222222</v>
       </c>
       <c r="P46" t="n">
         <v>94.98630031433484</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.17089504818556</v>
+        <v>58.72467924973772</v>
       </c>
       <c r="R46" t="n">
-        <v>102.8017055804841</v>
+        <v>131.2479213789319</v>
       </c>
       <c r="S46" t="n">
         <v>265.7142857142857</v>
       </c>
       <c r="T46" t="n">
-        <v>287.8571428571429</v>
+        <v>333.5714285714286</v>
       </c>
       <c r="U46" t="n">
-        <v>243.5714285714286</v>
+        <v>197.8571428571429</v>
       </c>
       <c r="V46" t="n">
         <v>380</v>
       </c>
       <c r="W46" t="n">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X46" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47">
@@ -3890,73 +3890,73 @@
         <v>68.33333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>61.99999999999999</v>
+        <v>48.55555555555555</v>
       </c>
       <c r="C47" t="n">
-        <v>74.66666666666666</v>
+        <v>88.11111111111111</v>
       </c>
       <c r="D47" t="n">
         <v>192.2222222222222</v>
       </c>
       <c r="E47" t="n">
-        <v>204.4444444444445</v>
+        <v>238.8888888888889</v>
       </c>
       <c r="F47" t="n">
-        <v>180</v>
+        <v>145.5555555555556</v>
       </c>
       <c r="G47" t="n">
         <v>125</v>
       </c>
       <c r="H47" t="n">
-        <v>118.1818181818182</v>
+        <v>94.54545454545455</v>
       </c>
       <c r="I47" t="n">
-        <v>131.8181818181818</v>
+        <v>155.4545454545454</v>
       </c>
       <c r="J47" t="n">
         <v>148.8888888888889</v>
       </c>
       <c r="K47" t="n">
-        <v>140.5555555555555</v>
+        <v>114.2222222222222</v>
       </c>
       <c r="L47" t="n">
-        <v>157.2222222222222</v>
+        <v>183.5555555555555</v>
       </c>
       <c r="M47" t="n">
         <v>106.6666666666667</v>
       </c>
       <c r="N47" t="n">
-        <v>114.4444444444444</v>
+        <v>137.7777777777778</v>
       </c>
       <c r="O47" t="n">
-        <v>98.8888888888889</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="P47" t="n">
         <v>90.32979443830244</v>
       </c>
       <c r="Q47" t="n">
-        <v>98.32825308690451</v>
+        <v>127.3236290327107</v>
       </c>
       <c r="R47" t="n">
-        <v>82.33133578970038</v>
+        <v>53.33595984389419</v>
       </c>
       <c r="S47" t="n">
         <v>248.5714285714286</v>
       </c>
       <c r="T47" t="n">
-        <v>269.2857142857143</v>
+        <v>312.8571428571428</v>
       </c>
       <c r="U47" t="n">
-        <v>227.8571428571428</v>
+        <v>184.2857142857143</v>
       </c>
       <c r="V47" t="n">
         <v>354</v>
       </c>
       <c r="W47" t="n">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="X47" t="n">
-        <v>321</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48">
@@ -3964,73 +3964,73 @@
         <v>70</v>
       </c>
       <c r="B48" t="n">
-        <v>76</v>
+        <v>89.33333333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>64</v>
+        <v>50.66666666666667</v>
       </c>
       <c r="D48" t="n">
         <v>186.6666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>198.3333333333333</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="F48" t="n">
-        <v>175</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="G48" t="n">
         <v>120</v>
       </c>
       <c r="H48" t="n">
-        <v>126.3636363636364</v>
+        <v>149.0909090909091</v>
       </c>
       <c r="I48" t="n">
-        <v>113.6363636363636</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="J48" t="n">
         <v>146.6666666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>138.6666666666667</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>154.6666666666667</v>
+        <v>180.6666666666667</v>
       </c>
       <c r="M48" t="n">
         <v>110</v>
       </c>
       <c r="N48" t="n">
-        <v>117.3333333333333</v>
+        <v>140.3333333333333</v>
       </c>
       <c r="O48" t="n">
-        <v>102.6666666666667</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="P48" t="n">
         <v>105.6571649706279</v>
       </c>
       <c r="Q48" t="n">
-        <v>97.91392710158046</v>
+        <v>69.68421349443814</v>
       </c>
       <c r="R48" t="n">
-        <v>113.4004028396754</v>
+        <v>141.6301164468177</v>
       </c>
       <c r="S48" t="n">
         <v>231.4285714285714</v>
       </c>
       <c r="T48" t="n">
-        <v>250.7142857142857</v>
+        <v>292.1428571428572</v>
       </c>
       <c r="U48" t="n">
-        <v>212.1428571428572</v>
+        <v>170.7142857142857</v>
       </c>
       <c r="V48" t="n">
         <v>328</v>
       </c>
       <c r="W48" t="n">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="X48" t="n">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -4038,73 +4038,73 @@
         <v>71.66666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>77.33333333333334</v>
+        <v>90.55555555555556</v>
       </c>
       <c r="C49" t="n">
-        <v>66</v>
+        <v>52.77777777777779</v>
       </c>
       <c r="D49" t="n">
         <v>181.1111111111111</v>
       </c>
       <c r="E49" t="n">
-        <v>192.2222222222222</v>
+        <v>224.4444444444445</v>
       </c>
       <c r="F49" t="n">
-        <v>170</v>
+        <v>137.7777777777778</v>
       </c>
       <c r="G49" t="n">
         <v>115</v>
       </c>
       <c r="H49" t="n">
-        <v>109.0909090909091</v>
+        <v>87.27272727272728</v>
       </c>
       <c r="I49" t="n">
-        <v>120.9090909090909</v>
+        <v>142.7272727272727</v>
       </c>
       <c r="J49" t="n">
         <v>144.4444444444445</v>
       </c>
       <c r="K49" t="n">
-        <v>152.1111111111111</v>
+        <v>177.7777777777778</v>
       </c>
       <c r="L49" t="n">
-        <v>136.7777777777778</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="M49" t="n">
         <v>113.3333333333333</v>
       </c>
       <c r="N49" t="n">
-        <v>106.4444444444445</v>
+        <v>83.77777777777779</v>
       </c>
       <c r="O49" t="n">
-        <v>120.2222222222222</v>
+        <v>142.8888888888889</v>
       </c>
       <c r="P49" t="n">
         <v>98.35172952854093</v>
       </c>
       <c r="Q49" t="n">
-        <v>105.4387771803514</v>
+        <v>131.6999201357828</v>
       </c>
       <c r="R49" t="n">
-        <v>91.26468187673046</v>
+        <v>65.00353892129908</v>
       </c>
       <c r="S49" t="n">
         <v>214.2857142857143</v>
       </c>
       <c r="T49" t="n">
-        <v>232.1428571428571</v>
+        <v>271.4285714285714</v>
       </c>
       <c r="U49" t="n">
-        <v>196.4285714285714</v>
+        <v>157.1428571428571</v>
       </c>
       <c r="V49" t="n">
         <v>302</v>
       </c>
       <c r="W49" t="n">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="X49" t="n">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50">
@@ -4112,73 +4112,73 @@
         <v>73.33333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>78.66666666666666</v>
+        <v>91.77777777777777</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>54.88888888888889</v>
       </c>
       <c r="D50" t="n">
         <v>175.5555555555555</v>
       </c>
       <c r="E50" t="n">
-        <v>165</v>
+        <v>133.8888888888889</v>
       </c>
       <c r="F50" t="n">
-        <v>186.1111111111111</v>
+        <v>217.2222222222222</v>
       </c>
       <c r="G50" t="n">
         <v>110</v>
       </c>
       <c r="H50" t="n">
-        <v>115.4545454545455</v>
+        <v>136.3636363636364</v>
       </c>
       <c r="I50" t="n">
-        <v>104.5454545454545</v>
+        <v>83.63636363636363</v>
       </c>
       <c r="J50" t="n">
         <v>142.2222222222222</v>
       </c>
       <c r="K50" t="n">
-        <v>134.8888888888889</v>
+        <v>109.5555555555556</v>
       </c>
       <c r="L50" t="n">
-        <v>149.5555555555556</v>
+        <v>174.8888888888889</v>
       </c>
       <c r="M50" t="n">
         <v>116.6666666666667</v>
       </c>
       <c r="N50" t="n">
-        <v>123.1111111111111</v>
+        <v>145.4444444444445</v>
       </c>
       <c r="O50" t="n">
-        <v>110.2222222222222</v>
+        <v>87.88888888888889</v>
       </c>
       <c r="P50" t="n">
         <v>103.3878268591065</v>
       </c>
       <c r="Q50" t="n">
-        <v>109.5136278737447</v>
+        <v>132.891030917659</v>
       </c>
       <c r="R50" t="n">
-        <v>97.2620258444684</v>
+        <v>73.88462280055401</v>
       </c>
       <c r="S50" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="T50" t="n">
-        <v>213.5714285714286</v>
+        <v>250.7142857142857</v>
       </c>
       <c r="U50" t="n">
-        <v>180.7142857142857</v>
+        <v>143.5714285714286</v>
       </c>
       <c r="V50" t="n">
         <v>276</v>
       </c>
       <c r="W50" t="n">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="X50" t="n">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
@@ -4186,73 +4186,73 @@
         <v>75</v>
       </c>
       <c r="B51" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D51" t="n">
         <v>170</v>
       </c>
       <c r="E51" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F51" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G51" t="n">
         <v>105</v>
       </c>
       <c r="H51" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J51" t="n">
         <v>140</v>
       </c>
       <c r="K51" t="n">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L51" t="n">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="M51" t="n">
         <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O51" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="P51" t="n">
         <v>104.8324005030202</v>
       </c>
       <c r="Q51" t="n">
-        <v>109.8324005030202</v>
+        <v>129.8324005030202</v>
       </c>
       <c r="R51" t="n">
-        <v>99.83240050302017</v>
+        <v>79.83240050302015</v>
       </c>
       <c r="S51" t="n">
         <v>180</v>
       </c>
       <c r="T51" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="U51" t="n">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="V51" t="n">
         <v>250</v>
       </c>
       <c r="W51" t="n">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="X51" t="n">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/extended_outcome/extended_scenarios.xlsx
+++ b/extended_outcome/extended_scenarios.xlsx
@@ -560,73 +560,73 @@
         <v>85</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>97.51066014107722</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>72.48933985892278</v>
       </c>
       <c r="D2" t="n">
         <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>116.9201529357399</v>
       </c>
       <c r="F2" t="n">
-        <v>185</v>
+        <v>183.0798470642601</v>
       </c>
       <c r="G2" t="n">
         <v>95</v>
       </c>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>116.5239370772373</v>
       </c>
       <c r="I2" t="n">
-        <v>115</v>
+        <v>73.47606292276274</v>
       </c>
       <c r="J2" t="n">
         <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>88</v>
+        <v>146.0108951704103</v>
       </c>
       <c r="L2" t="n">
-        <v>132</v>
+        <v>73.98910482958971</v>
       </c>
       <c r="M2" t="n">
         <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>172</v>
+        <v>116.3402048673078</v>
       </c>
       <c r="O2" t="n">
-        <v>108</v>
+        <v>163.6597951326922</v>
       </c>
       <c r="P2" t="n">
         <v>108.4410816325624</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.44108163256242</v>
+        <v>145.2268861756424</v>
       </c>
       <c r="R2" t="n">
-        <v>133.4410816325624</v>
+        <v>71.65527708948237</v>
       </c>
       <c r="S2" t="n">
         <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>125</v>
+        <v>87.71075131878129</v>
       </c>
       <c r="U2" t="n">
-        <v>75</v>
+        <v>112.2892486812187</v>
       </c>
       <c r="V2" t="n">
         <v>80</v>
       </c>
       <c r="W2" t="n">
-        <v>110</v>
+        <v>38.79711791624551</v>
       </c>
       <c r="X2" t="n">
-        <v>50</v>
+        <v>121.2028820837545</v>
       </c>
     </row>
     <row r="3">
@@ -634,73 +634,73 @@
         <v>81.66666666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>97.77777777777779</v>
+        <v>104.3875125810425</v>
       </c>
       <c r="C3" t="n">
-        <v>65.55555555555556</v>
+        <v>58.94582075229081</v>
       </c>
       <c r="D3" t="n">
         <v>155.5555555555555</v>
       </c>
       <c r="E3" t="n">
-        <v>192.2222222222222</v>
+        <v>178.000009177059</v>
       </c>
       <c r="F3" t="n">
-        <v>118.8888888888889</v>
+        <v>133.1111019340521</v>
       </c>
       <c r="G3" t="n">
         <v>97.14285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>76.42857142857142</v>
+        <v>70.18413675002827</v>
       </c>
       <c r="I3" t="n">
-        <v>117.8571428571429</v>
+        <v>124.101577535686</v>
       </c>
       <c r="J3" t="n">
         <v>108.8888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>86.55555555555556</v>
+        <v>132.6391896974939</v>
       </c>
       <c r="L3" t="n">
-        <v>131.2222222222222</v>
+        <v>85.13858808028388</v>
       </c>
       <c r="M3" t="n">
         <v>138.5714285714286</v>
       </c>
       <c r="N3" t="n">
-        <v>106.1428571428572</v>
+        <v>182.1219691853213</v>
       </c>
       <c r="O3" t="n">
-        <v>171</v>
+        <v>95.02088795753586</v>
       </c>
       <c r="P3" t="n">
         <v>117.4498383767051</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.9530424352576</v>
+        <v>92.98724015911732</v>
       </c>
       <c r="R3" t="n">
-        <v>87.94663431815263</v>
+        <v>141.9124365942929</v>
       </c>
       <c r="S3" t="n">
         <v>92.85714285714286</v>
       </c>
       <c r="T3" t="n">
-        <v>65.71428571428572</v>
+        <v>128.3975637672035</v>
       </c>
       <c r="U3" t="n">
-        <v>120</v>
+        <v>57.31672194708228</v>
       </c>
       <c r="V3" t="n">
         <v>74.28571428571429</v>
       </c>
       <c r="W3" t="n">
-        <v>42.14285714285715</v>
+        <v>28.08663725822919</v>
       </c>
       <c r="X3" t="n">
-        <v>106.4285714285714</v>
+        <v>120.4847913131994</v>
       </c>
     </row>
     <row r="4">
@@ -708,73 +708,73 @@
         <v>78.33333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>61.11111111111111</v>
+        <v>80.5589868000759</v>
       </c>
       <c r="C4" t="n">
-        <v>95.55555555555554</v>
+        <v>76.10767986659076</v>
       </c>
       <c r="D4" t="n">
         <v>161.1111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>199.4444444444445</v>
+        <v>121.2879034414165</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7777777777778</v>
+        <v>200.9343187808057</v>
       </c>
       <c r="G4" t="n">
         <v>99.28571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>120.7142857142857</v>
+        <v>84.13000068975454</v>
       </c>
       <c r="I4" t="n">
-        <v>77.85714285714286</v>
+        <v>114.441427881674</v>
       </c>
       <c r="J4" t="n">
         <v>107.7777777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>130.4444444444444</v>
+        <v>70.93058031216458</v>
       </c>
       <c r="L4" t="n">
-        <v>85.1111111111111</v>
+        <v>144.624975243391</v>
       </c>
       <c r="M4" t="n">
         <v>137.1428571428571</v>
       </c>
       <c r="N4" t="n">
-        <v>170</v>
+        <v>113.0841396255315</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2857142857143</v>
+        <v>161.2015746601828</v>
       </c>
       <c r="P4" t="n">
         <v>118.4498672204391</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.7980578276809</v>
+        <v>75.46480292146231</v>
       </c>
       <c r="R4" t="n">
-        <v>85.10167661319726</v>
+        <v>161.4349315194159</v>
       </c>
       <c r="S4" t="n">
         <v>85.71428571428571</v>
       </c>
       <c r="T4" t="n">
-        <v>115</v>
+        <v>58.27629448534462</v>
       </c>
       <c r="U4" t="n">
-        <v>56.42857142857142</v>
+        <v>113.1522769432268</v>
       </c>
       <c r="V4" t="n">
         <v>68.57142857142857</v>
       </c>
       <c r="W4" t="n">
-        <v>34.28571428571428</v>
+        <v>23.20987807929669</v>
       </c>
       <c r="X4" t="n">
-        <v>102.8571428571429</v>
+        <v>113.9329790635605</v>
       </c>
     </row>
     <row r="5">
@@ -782,73 +782,73 @@
         <v>75</v>
       </c>
       <c r="B5" t="n">
-        <v>56.66666666666667</v>
+        <v>62.59668948771147</v>
       </c>
       <c r="C5" t="n">
-        <v>93.33333333333333</v>
+        <v>87.40331051228853</v>
       </c>
       <c r="D5" t="n">
         <v>166.6666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>126.6666666666667</v>
+        <v>128.6069948881184</v>
       </c>
       <c r="F5" t="n">
-        <v>206.6666666666667</v>
+        <v>204.726338445215</v>
       </c>
       <c r="G5" t="n">
         <v>101.4285714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>123.5714285714286</v>
+        <v>123.8962567273585</v>
       </c>
       <c r="I5" t="n">
-        <v>79.28571428571429</v>
+        <v>78.9608861297844</v>
       </c>
       <c r="J5" t="n">
         <v>106.6666666666667</v>
       </c>
       <c r="K5" t="n">
-        <v>129.6666666666667</v>
+        <v>136.1111464768976</v>
       </c>
       <c r="L5" t="n">
-        <v>83.66666666666667</v>
+        <v>77.22218685643573</v>
       </c>
       <c r="M5" t="n">
         <v>135.7142857142857</v>
       </c>
       <c r="N5" t="n">
-        <v>169</v>
+        <v>181.5583272381377</v>
       </c>
       <c r="O5" t="n">
-        <v>102.4285714285714</v>
+        <v>89.87024419043379</v>
       </c>
       <c r="P5" t="n">
         <v>115.9397792763166</v>
       </c>
       <c r="Q5" t="n">
-        <v>79.96682780012685</v>
+        <v>138.1636295242639</v>
       </c>
       <c r="R5" t="n">
-        <v>151.9127307525063</v>
+        <v>93.71592902836935</v>
       </c>
       <c r="S5" t="n">
         <v>78.57142857142857</v>
       </c>
       <c r="T5" t="n">
-        <v>47.14285714285714</v>
+        <v>40.4389018079289</v>
       </c>
       <c r="U5" t="n">
-        <v>110</v>
+        <v>116.7039553349282</v>
       </c>
       <c r="V5" t="n">
         <v>62.85714285714286</v>
       </c>
       <c r="W5" t="n">
-        <v>26.42857142857143</v>
+        <v>25.50290068190346</v>
       </c>
       <c r="X5" t="n">
-        <v>99.28571428571429</v>
+        <v>100.2113850323823</v>
       </c>
     </row>
     <row r="6">
@@ -856,73 +856,73 @@
         <v>71.66666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>91.11111111111111</v>
+        <v>62.81954549770884</v>
       </c>
       <c r="C6" t="n">
-        <v>52.22222222222223</v>
+        <v>80.5137878356245</v>
       </c>
       <c r="D6" t="n">
         <v>172.2222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>130.5555555555556</v>
+        <v>211.4999229515136</v>
       </c>
       <c r="F6" t="n">
-        <v>213.8888888888889</v>
+        <v>132.9445214929309</v>
       </c>
       <c r="G6" t="n">
         <v>103.5714285714286</v>
       </c>
       <c r="H6" t="n">
-        <v>80.71428571428571</v>
+        <v>138.2169800590011</v>
       </c>
       <c r="I6" t="n">
-        <v>126.4285714285714</v>
+        <v>68.92587708385608</v>
       </c>
       <c r="J6" t="n">
         <v>105.5555555555556</v>
       </c>
       <c r="K6" t="n">
-        <v>128.8888888888889</v>
+        <v>134.820753626807</v>
       </c>
       <c r="L6" t="n">
-        <v>82.22222222222223</v>
+        <v>76.2903574843041</v>
       </c>
       <c r="M6" t="n">
         <v>134.2857142857143</v>
       </c>
       <c r="N6" t="n">
-        <v>100.5714285714286</v>
+        <v>100.9190929075837</v>
       </c>
       <c r="O6" t="n">
-        <v>168</v>
+        <v>167.6523356638449</v>
       </c>
       <c r="P6" t="n">
         <v>110.3932381869409</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.39940359253261</v>
+        <v>135.6167731794282</v>
       </c>
       <c r="R6" t="n">
-        <v>147.3870727813491</v>
+        <v>85.16970319445358</v>
       </c>
       <c r="S6" t="n">
         <v>71.42857142857143</v>
       </c>
       <c r="T6" t="n">
-        <v>105</v>
+        <v>119.3396853598981</v>
       </c>
       <c r="U6" t="n">
-        <v>37.85714285714286</v>
+        <v>23.51745749724478</v>
       </c>
       <c r="V6" t="n">
         <v>57.14285714285714</v>
       </c>
       <c r="W6" t="n">
-        <v>18.57142857142857</v>
+        <v>26.58957873210985</v>
       </c>
       <c r="X6" t="n">
-        <v>95.71428571428571</v>
+        <v>87.69613555360442</v>
       </c>
     </row>
     <row r="7">
@@ -930,73 +930,73 @@
         <v>68.33333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>47.77777777777777</v>
+        <v>60.00761993471384</v>
       </c>
       <c r="C7" t="n">
-        <v>88.88888888888889</v>
+        <v>76.65904673195283</v>
       </c>
       <c r="D7" t="n">
         <v>177.7777777777778</v>
       </c>
       <c r="E7" t="n">
-        <v>221.1111111111111</v>
+        <v>139.5343998143282</v>
       </c>
       <c r="F7" t="n">
-        <v>134.4444444444444</v>
+        <v>216.0211557412273</v>
       </c>
       <c r="G7" t="n">
         <v>105.7142857142857</v>
       </c>
       <c r="H7" t="n">
-        <v>82.14285714285714</v>
+        <v>70.25406447485399</v>
       </c>
       <c r="I7" t="n">
-        <v>129.2857142857143</v>
+        <v>141.1745069537174</v>
       </c>
       <c r="J7" t="n">
         <v>104.4444444444444</v>
       </c>
       <c r="K7" t="n">
-        <v>80.77777777777777</v>
+        <v>89.29509291036649</v>
       </c>
       <c r="L7" t="n">
-        <v>128.1111111111111</v>
+        <v>119.5937959785224</v>
       </c>
       <c r="M7" t="n">
         <v>132.8571428571429</v>
       </c>
       <c r="N7" t="n">
-        <v>98.71428571428572</v>
+        <v>170.3523158870794</v>
       </c>
       <c r="O7" t="n">
-        <v>167</v>
+        <v>95.36196982720634</v>
       </c>
       <c r="P7" t="n">
         <v>128.9462754017293</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2078964663265</v>
+        <v>168.0594583925137</v>
       </c>
       <c r="R7" t="n">
-        <v>92.68465433713222</v>
+        <v>89.833092410945</v>
       </c>
       <c r="S7" t="n">
         <v>64.28571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>28.57142857142856</v>
+        <v>27.41655245911555</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>101.154876112313</v>
       </c>
       <c r="V7" t="n">
         <v>51.42857142857143</v>
       </c>
       <c r="W7" t="n">
-        <v>10.71428571428572</v>
+        <v>25.37232158596282</v>
       </c>
       <c r="X7" t="n">
-        <v>92.14285714285714</v>
+        <v>77.48482127118004</v>
       </c>
     </row>
     <row r="8">
@@ -1004,73 +1004,73 @@
         <v>65</v>
       </c>
       <c r="B8" t="n">
-        <v>43.33333333333333</v>
+        <v>52.74552699200321</v>
       </c>
       <c r="C8" t="n">
-        <v>86.66666666666667</v>
+        <v>77.25447300799679</v>
       </c>
       <c r="D8" t="n">
         <v>183.3333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>228.3333333333333</v>
+        <v>219.4727923544686</v>
       </c>
       <c r="F8" t="n">
-        <v>138.3333333333333</v>
+        <v>147.193874312198</v>
       </c>
       <c r="G8" t="n">
         <v>107.8571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>83.57142857142858</v>
+        <v>120.9104164567722</v>
       </c>
       <c r="I8" t="n">
-        <v>132.1428571428571</v>
+        <v>94.80386925751348</v>
       </c>
       <c r="J8" t="n">
         <v>103.3333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>127.3333333333333</v>
+        <v>141.6215669766206</v>
       </c>
       <c r="L8" t="n">
-        <v>79.33333333333333</v>
+        <v>65.04509969004607</v>
       </c>
       <c r="M8" t="n">
         <v>131.4285714285714</v>
       </c>
       <c r="N8" t="n">
-        <v>96.85714285714285</v>
+        <v>88.87990716273339</v>
       </c>
       <c r="O8" t="n">
-        <v>166</v>
+        <v>173.9772356944094</v>
       </c>
       <c r="P8" t="n">
         <v>130.6276118728695</v>
       </c>
       <c r="Q8" t="n">
-        <v>164.5109478377733</v>
+        <v>165.4054687035579</v>
       </c>
       <c r="R8" t="n">
-        <v>96.7442759079657</v>
+        <v>95.84975504218104</v>
       </c>
       <c r="S8" t="n">
         <v>57.14285714285714</v>
       </c>
       <c r="T8" t="n">
-        <v>19.28571428571428</v>
+        <v>19.25210037591614</v>
       </c>
       <c r="U8" t="n">
-        <v>95</v>
+        <v>95.03361390979813</v>
       </c>
       <c r="V8" t="n">
         <v>45.71428571428572</v>
       </c>
       <c r="W8" t="n">
-        <v>2.857142857142854</v>
+        <v>4.943078308368136</v>
       </c>
       <c r="X8" t="n">
-        <v>88.57142857142858</v>
+        <v>86.4854931202033</v>
       </c>
     </row>
     <row r="9">
@@ -1078,64 +1078,64 @@
         <v>61.66666666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>38.88888888888889</v>
+        <v>43.52206707759746</v>
       </c>
       <c r="C9" t="n">
-        <v>84.44444444444444</v>
+        <v>79.81126625573587</v>
       </c>
       <c r="D9" t="n">
         <v>188.8888888888889</v>
       </c>
       <c r="E9" t="n">
-        <v>235.5555555555555</v>
+        <v>239.1336845460755</v>
       </c>
       <c r="F9" t="n">
-        <v>142.2222222222222</v>
+        <v>138.6440932317023</v>
       </c>
       <c r="G9" t="n">
         <v>110</v>
       </c>
       <c r="H9" t="n">
-        <v>135</v>
+        <v>93.78271365585439</v>
       </c>
       <c r="I9" t="n">
-        <v>85</v>
+        <v>126.2172863441456</v>
       </c>
       <c r="J9" t="n">
         <v>102.2222222222222</v>
       </c>
       <c r="K9" t="n">
-        <v>77.8888888888889</v>
+        <v>92.70198123275119</v>
       </c>
       <c r="L9" t="n">
-        <v>126.5555555555556</v>
+        <v>111.7424632116933</v>
       </c>
       <c r="M9" t="n">
         <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>165</v>
+        <v>94.4474603638117</v>
       </c>
       <c r="O9" t="n">
-        <v>95</v>
+        <v>165.5525396361883</v>
       </c>
       <c r="P9" t="n">
         <v>117.0534525395763</v>
       </c>
       <c r="Q9" t="n">
-        <v>86.84684767016557</v>
+        <v>89.28262481346594</v>
       </c>
       <c r="R9" t="n">
-        <v>147.260057408987</v>
+        <v>144.8242802656866</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>22.83846599920715</v>
       </c>
       <c r="U9" t="n">
-        <v>90</v>
+        <v>77.16153400079284</v>
       </c>
       <c r="V9" t="n">
         <v>40</v>
@@ -1152,64 +1152,64 @@
         <v>58.33333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>34.44444444444444</v>
+        <v>37.54142021752434</v>
       </c>
       <c r="C10" t="n">
-        <v>82.22222222222221</v>
+        <v>79.12524644914231</v>
       </c>
       <c r="D10" t="n">
         <v>194.4444444444445</v>
       </c>
       <c r="E10" t="n">
-        <v>242.7777777777778</v>
+        <v>236.7674179880135</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1111111111111</v>
+        <v>152.1214709008754</v>
       </c>
       <c r="G10" t="n">
         <v>110</v>
       </c>
       <c r="H10" t="n">
-        <v>135</v>
+        <v>98.4559839009751</v>
       </c>
       <c r="I10" t="n">
-        <v>85</v>
+        <v>121.5440160990249</v>
       </c>
       <c r="J10" t="n">
         <v>101.1111111111111</v>
       </c>
       <c r="K10" t="n">
-        <v>76.44444444444444</v>
+        <v>118.3672486492811</v>
       </c>
       <c r="L10" t="n">
-        <v>125.7777777777778</v>
+        <v>83.85497357294113</v>
       </c>
       <c r="M10" t="n">
         <v>130</v>
       </c>
       <c r="N10" t="n">
-        <v>95</v>
+        <v>101.0959849527133</v>
       </c>
       <c r="O10" t="n">
-        <v>165</v>
+        <v>158.9040150472867</v>
       </c>
       <c r="P10" t="n">
         <v>131.4954450102834</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.7266023705149</v>
+        <v>110.664366892315</v>
       </c>
       <c r="R10" t="n">
-        <v>157.264287650052</v>
+        <v>152.3265231282519</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>16.94683059694387</v>
       </c>
       <c r="U10" t="n">
-        <v>90</v>
+        <v>83.05316940305613</v>
       </c>
       <c r="V10" t="n">
         <v>35</v>
@@ -1226,64 +1226,64 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>28.83549797989929</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>81.16450202010071</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>250</v>
+        <v>243.004818253086</v>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>156.995181746914</v>
       </c>
       <c r="G11" t="n">
         <v>117.7777777777778</v>
       </c>
       <c r="H11" t="n">
-        <v>144.4444444444444</v>
+        <v>92.88681580159201</v>
       </c>
       <c r="I11" t="n">
-        <v>91.1111111111111</v>
+        <v>142.6687397539635</v>
       </c>
       <c r="J11" t="n">
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>125</v>
+        <v>76.95625402786663</v>
       </c>
       <c r="L11" t="n">
-        <v>75</v>
+        <v>123.0437459721334</v>
       </c>
       <c r="M11" t="n">
         <v>125.9090909090909</v>
       </c>
       <c r="N11" t="n">
-        <v>90.45454545454545</v>
+        <v>151.9952732234739</v>
       </c>
       <c r="O11" t="n">
-        <v>161.3636363636364</v>
+        <v>99.82290859470791</v>
       </c>
       <c r="P11" t="n">
         <v>118.954701941098</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.17340332481456</v>
+        <v>151.4115835232641</v>
       </c>
       <c r="R11" t="n">
-        <v>147.7360005573814</v>
+        <v>86.49782035893185</v>
       </c>
       <c r="S11" t="n">
         <v>46.25</v>
       </c>
       <c r="T11" t="n">
-        <v>3.75</v>
+        <v>3.753524975233205</v>
       </c>
       <c r="U11" t="n">
-        <v>88.75</v>
+        <v>88.7464750247668</v>
       </c>
       <c r="V11" t="n">
         <v>30</v>
@@ -1300,55 +1300,55 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>32.42416456790116</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>77.57583543209884</v>
       </c>
       <c r="D12" t="n">
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>250</v>
+        <v>253.6340149830788</v>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>146.3659850169212</v>
       </c>
       <c r="G12" t="n">
         <v>125.5555555555556</v>
       </c>
       <c r="H12" t="n">
-        <v>97.22222222222223</v>
+        <v>111.3259358958652</v>
       </c>
       <c r="I12" t="n">
-        <v>153.8888888888889</v>
+        <v>139.7851752152459</v>
       </c>
       <c r="J12" t="n">
         <v>98</v>
       </c>
       <c r="K12" t="n">
-        <v>73</v>
+        <v>131.3814876538126</v>
       </c>
       <c r="L12" t="n">
-        <v>123</v>
+        <v>64.61851234618743</v>
       </c>
       <c r="M12" t="n">
         <v>121.8181818181818</v>
       </c>
       <c r="N12" t="n">
-        <v>157.7272727272727</v>
+        <v>98.48685284614466</v>
       </c>
       <c r="O12" t="n">
-        <v>85.90909090909091</v>
+        <v>145.149510790219</v>
       </c>
       <c r="P12" t="n">
         <v>131.3394263044773</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.1181670481708</v>
+        <v>162.262409831437</v>
       </c>
       <c r="R12" t="n">
-        <v>98.56068556078388</v>
+        <v>100.4164427775177</v>
       </c>
       <c r="S12" t="n">
         <v>42.5</v>
@@ -1374,55 +1374,55 @@
         <v>53.33333333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>27.22222222222222</v>
+        <v>21.66563721031944</v>
       </c>
       <c r="C13" t="n">
-        <v>79.44444444444444</v>
+        <v>85.00102945634723</v>
       </c>
       <c r="D13" t="n">
         <v>208.8888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>261.1111111111111</v>
+        <v>261.9853739394223</v>
       </c>
       <c r="F13" t="n">
-        <v>156.6666666666667</v>
+        <v>155.7924038383555</v>
       </c>
       <c r="G13" t="n">
         <v>133.3333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>163.3333333333333</v>
+        <v>104.628336601492</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3333333333333</v>
+        <v>162.0383300651747</v>
       </c>
       <c r="J13" t="n">
         <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>69</v>
+        <v>78.06944776199241</v>
       </c>
       <c r="L13" t="n">
-        <v>121</v>
+        <v>111.9305522380076</v>
       </c>
       <c r="M13" t="n">
         <v>117.7272727272727</v>
       </c>
       <c r="N13" t="n">
-        <v>81.36363636363635</v>
+        <v>161.2441179768782</v>
       </c>
       <c r="O13" t="n">
-        <v>154.0909090909091</v>
+        <v>74.21042747766725</v>
       </c>
       <c r="P13" t="n">
         <v>117.7357345201336</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.3749261966096</v>
+        <v>75.02007965319692</v>
       </c>
       <c r="R13" t="n">
-        <v>82.09654284365762</v>
+        <v>160.4513893870703</v>
       </c>
       <c r="S13" t="n">
         <v>38.75</v>
@@ -1448,55 +1448,55 @@
         <v>51.66666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>24.44444444444444</v>
+        <v>33.31087695249892</v>
       </c>
       <c r="C14" t="n">
-        <v>78.88888888888889</v>
+        <v>70.02245638083441</v>
       </c>
       <c r="D14" t="n">
         <v>217.7777777777778</v>
       </c>
       <c r="E14" t="n">
-        <v>272.2222222222222</v>
+        <v>261.2596205825702</v>
       </c>
       <c r="F14" t="n">
-        <v>163.3333333333333</v>
+        <v>174.2959349729853</v>
       </c>
       <c r="G14" t="n">
         <v>141.1111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>172.7777777777778</v>
+        <v>104.9701230160016</v>
       </c>
       <c r="I14" t="n">
-        <v>109.4444444444444</v>
+        <v>177.2520992062206</v>
       </c>
       <c r="J14" t="n">
         <v>93</v>
       </c>
       <c r="K14" t="n">
-        <v>120</v>
+        <v>55.11020293202333</v>
       </c>
       <c r="L14" t="n">
-        <v>66</v>
+        <v>130.8897970679767</v>
       </c>
       <c r="M14" t="n">
         <v>113.6363636363636</v>
       </c>
       <c r="N14" t="n">
-        <v>150.4545454545455</v>
+        <v>78.57890513130323</v>
       </c>
       <c r="O14" t="n">
-        <v>76.81818181818181</v>
+        <v>148.6938221414241</v>
       </c>
       <c r="P14" t="n">
         <v>109.2816452249995</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.2261945803899</v>
+        <v>71.79600350963103</v>
       </c>
       <c r="R14" t="n">
-        <v>72.3370958696091</v>
+        <v>146.7672869403679</v>
       </c>
       <c r="S14" t="n">
         <v>35</v>
@@ -1522,55 +1522,55 @@
         <v>50</v>
       </c>
       <c r="B15" t="n">
-        <v>21.66666666666667</v>
+        <v>10.32314357493831</v>
       </c>
       <c r="C15" t="n">
-        <v>78.33333333333333</v>
+        <v>89.67685642506169</v>
       </c>
       <c r="D15" t="n">
         <v>226.6666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>283.3333333333333</v>
+        <v>283.7406769713057</v>
       </c>
       <c r="F15" t="n">
-        <v>170</v>
+        <v>169.5926563620276</v>
       </c>
       <c r="G15" t="n">
         <v>148.8888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>182.2222222222222</v>
+        <v>122.2009370761163</v>
       </c>
       <c r="I15" t="n">
-        <v>115.5555555555555</v>
+        <v>175.5768407016615</v>
       </c>
       <c r="J15" t="n">
         <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>120</v>
+        <v>49.49797968474061</v>
       </c>
       <c r="L15" t="n">
-        <v>64</v>
+        <v>134.5020203152594</v>
       </c>
       <c r="M15" t="n">
         <v>109.5454545454545</v>
       </c>
       <c r="N15" t="n">
-        <v>72.27272727272728</v>
+        <v>82.52343124134774</v>
       </c>
       <c r="O15" t="n">
-        <v>146.8181818181818</v>
+        <v>136.5674778495614</v>
       </c>
       <c r="P15" t="n">
         <v>113.3213097856077</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.8253240220476</v>
+        <v>74.45153754238302</v>
       </c>
       <c r="R15" t="n">
-        <v>76.81729554916774</v>
+        <v>152.1910820288323</v>
       </c>
       <c r="S15" t="n">
         <v>35</v>
@@ -1596,64 +1596,64 @@
         <v>48.33333333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>18.88888888888889</v>
+        <v>33.06726109295111</v>
       </c>
       <c r="C16" t="n">
-        <v>77.77777777777777</v>
+        <v>63.59940557371556</v>
       </c>
       <c r="D16" t="n">
         <v>235.5555555555555</v>
       </c>
       <c r="E16" t="n">
-        <v>294.4444444444445</v>
+        <v>284.9776404138519</v>
       </c>
       <c r="F16" t="n">
-        <v>176.6666666666667</v>
+        <v>186.1334706972592</v>
       </c>
       <c r="G16" t="n">
         <v>156.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>121.6666666666667</v>
+        <v>116.3790196072627</v>
       </c>
       <c r="I16" t="n">
-        <v>191.6666666666667</v>
+        <v>196.9543137260706</v>
       </c>
       <c r="J16" t="n">
         <v>90</v>
       </c>
       <c r="K16" t="n">
-        <v>60</v>
+        <v>70.08473275785903</v>
       </c>
       <c r="L16" t="n">
-        <v>120</v>
+        <v>109.915267242141</v>
       </c>
       <c r="M16" t="n">
         <v>105.4545454545455</v>
       </c>
       <c r="N16" t="n">
-        <v>67.72727272727272</v>
+        <v>56.32916179123436</v>
       </c>
       <c r="O16" t="n">
-        <v>143.1818181818182</v>
+        <v>154.5799291178566</v>
       </c>
       <c r="P16" t="n">
         <v>104.0473847470741</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4293625366905</v>
+        <v>142.7900154135583</v>
       </c>
       <c r="R16" t="n">
-        <v>69.66540695745776</v>
+        <v>65.30475408058994</v>
       </c>
       <c r="S16" t="n">
         <v>42.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>1.355632020760197</v>
       </c>
       <c r="U16" t="n">
-        <v>84</v>
+        <v>83.6443679792398</v>
       </c>
       <c r="V16" t="n">
         <v>25</v>
@@ -1670,64 +1670,64 @@
         <v>46.66666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>16.11111111111111</v>
+        <v>10.99708580575904</v>
       </c>
       <c r="C17" t="n">
-        <v>77.22222222222223</v>
+        <v>82.33624752757429</v>
       </c>
       <c r="D17" t="n">
         <v>244.4444444444445</v>
       </c>
       <c r="E17" t="n">
-        <v>305.5555555555555</v>
+        <v>314.1156099900558</v>
       </c>
       <c r="F17" t="n">
-        <v>183.3333333333333</v>
+        <v>174.7732788988332</v>
       </c>
       <c r="G17" t="n">
         <v>164.4444444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>201.1111111111111</v>
+        <v>125.0518932552873</v>
       </c>
       <c r="I17" t="n">
-        <v>127.7777777777778</v>
+        <v>203.8369956336016</v>
       </c>
       <c r="J17" t="n">
         <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>120</v>
+        <v>122.9200183179858</v>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>57.07998168201422</v>
       </c>
       <c r="M17" t="n">
         <v>101.3636363636364</v>
       </c>
       <c r="N17" t="n">
-        <v>63.18181818181818</v>
+        <v>132.7680484052213</v>
       </c>
       <c r="O17" t="n">
-        <v>139.5454545454545</v>
+        <v>69.95922432205144</v>
       </c>
       <c r="P17" t="n">
         <v>100.9223303099008</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.0337196858535</v>
+        <v>146.5176690751505</v>
       </c>
       <c r="R17" t="n">
-        <v>131.810940933948</v>
+        <v>55.326991544651</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="V17" t="n">
         <v>30</v>
@@ -1744,73 +1744,73 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>13.33333333333333</v>
+        <v>15.81418926231952</v>
       </c>
       <c r="C18" t="n">
-        <v>76.66666666666667</v>
+        <v>74.18581073768047</v>
       </c>
       <c r="D18" t="n">
         <v>253.3333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>316.6666666666667</v>
+        <v>327.2859254458514</v>
       </c>
       <c r="F18" t="n">
-        <v>190</v>
+        <v>179.3807412208153</v>
       </c>
       <c r="G18" t="n">
         <v>172.2222222222222</v>
       </c>
       <c r="H18" t="n">
-        <v>210.5555555555556</v>
+        <v>196.2750120268705</v>
       </c>
       <c r="I18" t="n">
-        <v>133.8888888888889</v>
+        <v>148.1694324175739</v>
       </c>
       <c r="J18" t="n">
         <v>92</v>
       </c>
       <c r="K18" t="n">
-        <v>120</v>
+        <v>78.73041706997336</v>
       </c>
       <c r="L18" t="n">
-        <v>64</v>
+        <v>105.2695829300266</v>
       </c>
       <c r="M18" t="n">
         <v>97.27272727272728</v>
       </c>
       <c r="N18" t="n">
-        <v>135.9090909090909</v>
+        <v>133.3361414815224</v>
       </c>
       <c r="O18" t="n">
-        <v>58.63636363636365</v>
+        <v>61.20931306393211</v>
       </c>
       <c r="P18" t="n">
         <v>98.07805424212235</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.6125801823364</v>
+        <v>61.94778239425303</v>
       </c>
       <c r="R18" t="n">
-        <v>71.54352830190827</v>
+        <v>134.2083260899917</v>
       </c>
       <c r="S18" t="n">
         <v>57.5</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>23.59843939260254</v>
       </c>
       <c r="U18" t="n">
-        <v>100</v>
+        <v>91.40156060739747</v>
       </c>
       <c r="V18" t="n">
         <v>40</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>4.327749159457369</v>
       </c>
       <c r="X18" t="n">
-        <v>79</v>
+        <v>75.67225084054263</v>
       </c>
     </row>
     <row r="19">
@@ -1818,73 +1818,73 @@
         <v>43.33333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>10.55555555555555</v>
+        <v>8.794860702183001</v>
       </c>
       <c r="C19" t="n">
-        <v>76.11111111111111</v>
+        <v>77.87180596448366</v>
       </c>
       <c r="D19" t="n">
         <v>262.2222222222222</v>
       </c>
       <c r="E19" t="n">
-        <v>327.7777777777778</v>
+        <v>327.6048828992356</v>
       </c>
       <c r="F19" t="n">
-        <v>196.6666666666667</v>
+        <v>196.8395615452088</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
       </c>
       <c r="H19" t="n">
-        <v>140</v>
+        <v>138.2343773602735</v>
       </c>
       <c r="I19" t="n">
-        <v>220</v>
+        <v>221.7656226397265</v>
       </c>
       <c r="J19" t="n">
         <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>122</v>
+        <v>71.40286152069112</v>
       </c>
       <c r="L19" t="n">
-        <v>68</v>
+        <v>118.5971384793089</v>
       </c>
       <c r="M19" t="n">
         <v>93.18181818181819</v>
       </c>
       <c r="N19" t="n">
-        <v>54.09090909090909</v>
+        <v>60.20851110889966</v>
       </c>
       <c r="O19" t="n">
-        <v>132.2727272727273</v>
+        <v>126.1551252547367</v>
       </c>
       <c r="P19" t="n">
         <v>95.14733287646054</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.1911878833746</v>
+        <v>120.5872159278601</v>
       </c>
       <c r="R19" t="n">
-        <v>67.10347786954645</v>
+        <v>69.70744982506102</v>
       </c>
       <c r="S19" t="n">
         <v>65</v>
       </c>
       <c r="T19" t="n">
-        <v>25</v>
+        <v>26.43628114546951</v>
       </c>
       <c r="U19" t="n">
-        <v>105</v>
+        <v>103.5637188545305</v>
       </c>
       <c r="V19" t="n">
         <v>55</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1892,73 +1892,73 @@
         <v>41.66666666666666</v>
       </c>
       <c r="B20" t="n">
-        <v>7.777777777777779</v>
+        <v>18.56616961992076</v>
       </c>
       <c r="C20" t="n">
-        <v>75.55555555555554</v>
+        <v>64.76716371341257</v>
       </c>
       <c r="D20" t="n">
         <v>271.1111111111111</v>
       </c>
       <c r="E20" t="n">
-        <v>338.8888888888889</v>
+        <v>349.2857334496129</v>
       </c>
       <c r="F20" t="n">
-        <v>203.3333333333333</v>
+        <v>192.9364887726093</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
       </c>
       <c r="H20" t="n">
-        <v>140</v>
+        <v>147.222426592776</v>
       </c>
       <c r="I20" t="n">
-        <v>220</v>
+        <v>212.777573407224</v>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>75</v>
+        <v>111.324801737945</v>
       </c>
       <c r="L20" t="n">
-        <v>125</v>
+        <v>88.67519826205501</v>
       </c>
       <c r="M20" t="n">
         <v>89.09090909090909</v>
       </c>
       <c r="N20" t="n">
-        <v>128.6363636363636</v>
+        <v>132.5000009027481</v>
       </c>
       <c r="O20" t="n">
-        <v>49.54545454545455</v>
+        <v>45.68181727907005</v>
       </c>
       <c r="P20" t="n">
         <v>98.24044002160164</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.06311365570707</v>
+        <v>54.77508399950824</v>
       </c>
       <c r="R20" t="n">
-        <v>130.4177663874962</v>
+        <v>141.705796043695</v>
       </c>
       <c r="S20" t="n">
         <v>72.5</v>
       </c>
       <c r="T20" t="n">
-        <v>110</v>
+        <v>122.9361805906707</v>
       </c>
       <c r="U20" t="n">
-        <v>35</v>
+        <v>22.06381940932935</v>
       </c>
       <c r="V20" t="n">
         <v>55</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>11.98677863467989</v>
       </c>
       <c r="X20" t="n">
-        <v>103</v>
+        <v>98.01322136532011</v>
       </c>
     </row>
     <row r="21">
@@ -1966,73 +1966,73 @@
         <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>14.05695532745364</v>
       </c>
       <c r="C21" t="n">
-        <v>75</v>
+        <v>65.94304467254636</v>
       </c>
       <c r="D21" t="n">
         <v>280</v>
       </c>
       <c r="E21" t="n">
-        <v>350</v>
+        <v>337.3893643102718</v>
       </c>
       <c r="F21" t="n">
-        <v>210</v>
+        <v>222.6106356897282</v>
       </c>
       <c r="G21" t="n">
         <v>185.7142857142857</v>
       </c>
       <c r="H21" t="n">
-        <v>227.8571428571429</v>
+        <v>225.310178767445</v>
       </c>
       <c r="I21" t="n">
-        <v>143.5714285714286</v>
+        <v>146.1183926611265</v>
       </c>
       <c r="J21" t="n">
         <v>105</v>
       </c>
       <c r="K21" t="n">
-        <v>81</v>
+        <v>67.30041096857292</v>
       </c>
       <c r="L21" t="n">
-        <v>129</v>
+        <v>142.6995890314271</v>
       </c>
       <c r="M21" t="n">
         <v>85</v>
       </c>
       <c r="N21" t="n">
-        <v>125</v>
+        <v>42.60486569431365</v>
       </c>
       <c r="O21" t="n">
-        <v>45</v>
+        <v>127.3951343056864</v>
       </c>
       <c r="P21" t="n">
         <v>99.24554826591358</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.98383510984944</v>
+        <v>144.2200443990934</v>
       </c>
       <c r="R21" t="n">
-        <v>134.5072614219777</v>
+        <v>54.2710521327338</v>
       </c>
       <c r="S21" t="n">
         <v>80</v>
       </c>
       <c r="T21" t="n">
-        <v>115</v>
+        <v>100.7469768265104</v>
       </c>
       <c r="U21" t="n">
-        <v>45</v>
+        <v>59.25302317348956</v>
       </c>
       <c r="V21" t="n">
         <v>64.28571428571429</v>
       </c>
       <c r="W21" t="n">
-        <v>18.14285714285715</v>
+        <v>26.5788253182623</v>
       </c>
       <c r="X21" t="n">
-        <v>110.4285714285714</v>
+        <v>101.9926032531663</v>
       </c>
     </row>
     <row r="22">
@@ -2040,73 +2040,73 @@
         <v>38</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" t="n">
         <v>290</v>
       </c>
       <c r="E22" t="n">
-        <v>365</v>
+        <v>365.1573827036511</v>
       </c>
       <c r="F22" t="n">
-        <v>215</v>
+        <v>214.8426172963489</v>
       </c>
       <c r="G22" t="n">
         <v>191.4285714285714</v>
       </c>
       <c r="H22" t="n">
-        <v>235.7142857142857</v>
+        <v>229.2200381674253</v>
       </c>
       <c r="I22" t="n">
-        <v>147.1428571428571</v>
+        <v>153.6371046897176</v>
       </c>
       <c r="J22" t="n">
         <v>105</v>
       </c>
       <c r="K22" t="n">
-        <v>81</v>
+        <v>127.0843994063939</v>
       </c>
       <c r="L22" t="n">
-        <v>129</v>
+        <v>82.91560059360607</v>
       </c>
       <c r="M22" t="n">
         <v>85</v>
       </c>
       <c r="N22" t="n">
-        <v>125</v>
+        <v>42.00212410125037</v>
       </c>
       <c r="O22" t="n">
-        <v>45</v>
+        <v>127.9978758987496</v>
       </c>
       <c r="P22" t="n">
         <v>98.05785369962447</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.21167229865107</v>
+        <v>121.5382703352685</v>
       </c>
       <c r="R22" t="n">
-        <v>134.9040351005979</v>
+        <v>74.57743706398043</v>
       </c>
       <c r="S22" t="n">
         <v>80</v>
       </c>
       <c r="T22" t="n">
-        <v>115</v>
+        <v>118.0164675239237</v>
       </c>
       <c r="U22" t="n">
-        <v>45</v>
+        <v>41.98353247607632</v>
       </c>
       <c r="V22" t="n">
         <v>73.57142857142857</v>
       </c>
       <c r="W22" t="n">
-        <v>117.8571428571429</v>
+        <v>104.8313944907592</v>
       </c>
       <c r="X22" t="n">
-        <v>29.28571428571428</v>
+        <v>42.31146265209794</v>
       </c>
     </row>
     <row r="23">
@@ -2123,64 +2123,64 @@
         <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>380</v>
+        <v>366.9585951316063</v>
       </c>
       <c r="F23" t="n">
-        <v>220</v>
+        <v>233.0414048683937</v>
       </c>
       <c r="G23" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="H23" t="n">
-        <v>243.5714285714286</v>
+        <v>249.3655661208185</v>
       </c>
       <c r="I23" t="n">
-        <v>150.7142857142857</v>
+        <v>144.9201481648958</v>
       </c>
       <c r="J23" t="n">
         <v>107.7777777777778</v>
       </c>
       <c r="K23" t="n">
-        <v>83.1111111111111</v>
+        <v>69.64179190766421</v>
       </c>
       <c r="L23" t="n">
-        <v>132.4444444444444</v>
+        <v>145.9137636478913</v>
       </c>
       <c r="M23" t="n">
         <v>82.22222222222223</v>
       </c>
       <c r="N23" t="n">
-        <v>122.7777777777778</v>
+        <v>48.69209314060146</v>
       </c>
       <c r="O23" t="n">
-        <v>41.66666666666667</v>
+        <v>115.752351303843</v>
       </c>
       <c r="P23" t="n">
         <v>107.3354793320297</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.0346142782116</v>
+        <v>64.07722728892196</v>
       </c>
       <c r="R23" t="n">
-        <v>70.63634438584779</v>
+        <v>150.5937313751374</v>
       </c>
       <c r="S23" t="n">
         <v>90</v>
       </c>
       <c r="T23" t="n">
-        <v>54.28571428571428</v>
+        <v>40.78182927330491</v>
       </c>
       <c r="U23" t="n">
-        <v>125.7142857142857</v>
+        <v>139.2181707266951</v>
       </c>
       <c r="V23" t="n">
         <v>82.85714285714286</v>
       </c>
       <c r="W23" t="n">
-        <v>125.2857142857143</v>
+        <v>139.7718306823173</v>
       </c>
       <c r="X23" t="n">
-        <v>40.42857142857143</v>
+        <v>25.94245503196842</v>
       </c>
     </row>
     <row r="24">
@@ -2197,64 +2197,64 @@
         <v>310</v>
       </c>
       <c r="E24" t="n">
-        <v>395</v>
+        <v>392.8436698279217</v>
       </c>
       <c r="F24" t="n">
-        <v>225</v>
+        <v>227.1563301720783</v>
       </c>
       <c r="G24" t="n">
         <v>202.8571428571429</v>
       </c>
       <c r="H24" t="n">
-        <v>251.4285714285714</v>
+        <v>249.6421829586936</v>
       </c>
       <c r="I24" t="n">
-        <v>154.2857142857143</v>
+        <v>156.0721027555921</v>
       </c>
       <c r="J24" t="n">
         <v>110.5555555555556</v>
       </c>
       <c r="K24" t="n">
-        <v>85.22222222222223</v>
+        <v>144.4780684669407</v>
       </c>
       <c r="L24" t="n">
-        <v>135.8888888888889</v>
+        <v>76.63304264417039</v>
       </c>
       <c r="M24" t="n">
         <v>79.44444444444444</v>
       </c>
       <c r="N24" t="n">
-        <v>38.33333333333333</v>
+        <v>44.79275691409241</v>
       </c>
       <c r="O24" t="n">
-        <v>120.5555555555556</v>
+        <v>114.0961319747965</v>
       </c>
       <c r="P24" t="n">
         <v>94.2459630212382</v>
       </c>
       <c r="Q24" t="n">
-        <v>59.40389596607473</v>
+        <v>138.1531469491359</v>
       </c>
       <c r="R24" t="n">
-        <v>129.0880300764017</v>
+        <v>50.33877909334046</v>
       </c>
       <c r="S24" t="n">
         <v>100</v>
       </c>
       <c r="T24" t="n">
-        <v>136.4285714285714</v>
+        <v>128.3376577992004</v>
       </c>
       <c r="U24" t="n">
-        <v>63.57142857142857</v>
+        <v>71.66234220079963</v>
       </c>
       <c r="V24" t="n">
         <v>92.14285714285714</v>
       </c>
       <c r="W24" t="n">
-        <v>132.7142857142857</v>
+        <v>62.73575718367761</v>
       </c>
       <c r="X24" t="n">
-        <v>51.57142857142857</v>
+        <v>121.5499571020367</v>
       </c>
     </row>
     <row r="25">
@@ -2271,64 +2271,64 @@
         <v>320</v>
       </c>
       <c r="E25" t="n">
-        <v>410</v>
+        <v>397.8959274698184</v>
       </c>
       <c r="F25" t="n">
-        <v>230</v>
+        <v>242.1040725301816</v>
       </c>
       <c r="G25" t="n">
         <v>208.5714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>259.2857142857143</v>
+        <v>248.9917464399632</v>
       </c>
       <c r="I25" t="n">
-        <v>157.8571428571429</v>
+        <v>168.151110702894</v>
       </c>
       <c r="J25" t="n">
         <v>113.3333333333333</v>
       </c>
       <c r="K25" t="n">
-        <v>87.33333333333333</v>
+        <v>150.3220122907843</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3333333333333</v>
+        <v>76.34465437588237</v>
       </c>
       <c r="M25" t="n">
         <v>76.66666666666667</v>
       </c>
       <c r="N25" t="n">
-        <v>118.3333333333333</v>
+        <v>42.39235382678638</v>
       </c>
       <c r="O25" t="n">
-        <v>35.00000000000001</v>
+        <v>110.940979506547</v>
       </c>
       <c r="P25" t="n">
         <v>102.0528350973527</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.50641628282609</v>
+        <v>63.41421696848293</v>
       </c>
       <c r="R25" t="n">
-        <v>133.5992539118793</v>
+        <v>140.6914532262224</v>
       </c>
       <c r="S25" t="n">
         <v>110</v>
       </c>
       <c r="T25" t="n">
-        <v>72.85714285714286</v>
+        <v>71.40244528006194</v>
       </c>
       <c r="U25" t="n">
-        <v>147.1428571428571</v>
+        <v>148.597554719938</v>
       </c>
       <c r="V25" t="n">
         <v>101.4285714285714</v>
       </c>
       <c r="W25" t="n">
-        <v>62.71428571428572</v>
+        <v>134.8067809389825</v>
       </c>
       <c r="X25" t="n">
-        <v>140.1428571428571</v>
+        <v>68.05036191816033</v>
       </c>
     </row>
     <row r="26">
@@ -2345,64 +2345,64 @@
         <v>325</v>
       </c>
       <c r="E26" t="n">
-        <v>420</v>
+        <v>408.8147991510383</v>
       </c>
       <c r="F26" t="n">
-        <v>230</v>
+        <v>241.1852008489617</v>
       </c>
       <c r="G26" t="n">
         <v>214.2857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>267.1428571428571</v>
+        <v>268.4823276838125</v>
       </c>
       <c r="I26" t="n">
-        <v>161.4285714285714</v>
+        <v>160.0891008876161</v>
       </c>
       <c r="J26" t="n">
         <v>116.1111111111111</v>
       </c>
       <c r="K26" t="n">
-        <v>89.44444444444444</v>
+        <v>132.9727404226562</v>
       </c>
       <c r="L26" t="n">
-        <v>142.7777777777778</v>
+        <v>99.249481799566</v>
       </c>
       <c r="M26" t="n">
         <v>73.88888888888889</v>
       </c>
       <c r="N26" t="n">
-        <v>31.66666666666666</v>
+        <v>36.83974823600464</v>
       </c>
       <c r="O26" t="n">
-        <v>116.1111111111111</v>
+        <v>110.9380295417731</v>
       </c>
       <c r="P26" t="n">
         <v>112.2051117979527</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.91120825353624</v>
+        <v>78.63725573010123</v>
       </c>
       <c r="R26" t="n">
-        <v>139.4990153423692</v>
+        <v>145.7729678658042</v>
       </c>
       <c r="S26" t="n">
         <v>120</v>
       </c>
       <c r="T26" t="n">
-        <v>157.8571428571429</v>
+        <v>69.8690058962552</v>
       </c>
       <c r="U26" t="n">
-        <v>82.14285714285714</v>
+        <v>170.1309941037448</v>
       </c>
       <c r="V26" t="n">
         <v>110.7142857142857</v>
       </c>
       <c r="W26" t="n">
-        <v>73.85714285714286</v>
+        <v>86.7288575146369</v>
       </c>
       <c r="X26" t="n">
-        <v>147.5714285714286</v>
+        <v>134.6997139139345</v>
       </c>
     </row>
     <row r="27">
@@ -2419,64 +2419,64 @@
         <v>320</v>
       </c>
       <c r="E27" t="n">
-        <v>410</v>
+        <v>412.9023592693579</v>
       </c>
       <c r="F27" t="n">
-        <v>230</v>
+        <v>227.0976407306421</v>
       </c>
       <c r="G27" t="n">
         <v>220</v>
       </c>
       <c r="H27" t="n">
-        <v>275</v>
+        <v>283.409442935341</v>
       </c>
       <c r="I27" t="n">
-        <v>165</v>
+        <v>156.590557064659</v>
       </c>
       <c r="J27" t="n">
         <v>118.8888888888889</v>
       </c>
       <c r="K27" t="n">
-        <v>91.55555555555556</v>
+        <v>104.3070979451623</v>
       </c>
       <c r="L27" t="n">
-        <v>146.2222222222222</v>
+        <v>133.4706798326154</v>
       </c>
       <c r="M27" t="n">
         <v>71.11111111111111</v>
       </c>
       <c r="N27" t="n">
-        <v>113.8888888888889</v>
+        <v>103.2138179084915</v>
       </c>
       <c r="O27" t="n">
-        <v>28.33333333333334</v>
+        <v>39.00840431373072</v>
       </c>
       <c r="P27" t="n">
         <v>106.036000023182</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.74209647876559</v>
+        <v>77.51399084968975</v>
       </c>
       <c r="R27" t="n">
-        <v>133.3299035675985</v>
+        <v>134.5580091966743</v>
       </c>
       <c r="S27" t="n">
         <v>130</v>
       </c>
       <c r="T27" t="n">
-        <v>91.42857142857143</v>
+        <v>157.5665119442061</v>
       </c>
       <c r="U27" t="n">
-        <v>168.5714285714286</v>
+        <v>102.4334880557939</v>
       </c>
       <c r="V27" t="n">
         <v>120</v>
       </c>
       <c r="W27" t="n">
-        <v>155</v>
+        <v>93.25690183095864</v>
       </c>
       <c r="X27" t="n">
-        <v>85</v>
+        <v>146.7430981690414</v>
       </c>
     </row>
     <row r="28">
@@ -2484,73 +2484,73 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>9.448673658906664</v>
       </c>
       <c r="C28" t="n">
-        <v>69</v>
+        <v>60.55132634109334</v>
       </c>
       <c r="D28" t="n">
         <v>310</v>
       </c>
       <c r="E28" t="n">
-        <v>395</v>
+        <v>386.7803600181271</v>
       </c>
       <c r="F28" t="n">
-        <v>225</v>
+        <v>233.2196399818729</v>
       </c>
       <c r="G28" t="n">
         <v>220</v>
       </c>
       <c r="H28" t="n">
-        <v>275</v>
+        <v>269.1909059712854</v>
       </c>
       <c r="I28" t="n">
-        <v>165</v>
+        <v>170.8090940287146</v>
       </c>
       <c r="J28" t="n">
         <v>121.6666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6666666666667</v>
+        <v>90.64438502533358</v>
       </c>
       <c r="L28" t="n">
-        <v>93.66666666666666</v>
+        <v>152.6889483079997</v>
       </c>
       <c r="M28" t="n">
         <v>68.33333333333334</v>
       </c>
       <c r="N28" t="n">
-        <v>25.00000000000001</v>
+        <v>35.03161416396198</v>
       </c>
       <c r="O28" t="n">
-        <v>111.6666666666667</v>
+        <v>101.6350525027047</v>
       </c>
       <c r="P28" t="n">
         <v>123.4514533711045</v>
       </c>
       <c r="Q28" t="n">
-        <v>154.997872185631</v>
+        <v>103.1603093251596</v>
       </c>
       <c r="R28" t="n">
-        <v>91.90503455657789</v>
+        <v>143.7425974170493</v>
       </c>
       <c r="S28" t="n">
         <v>140</v>
       </c>
       <c r="T28" t="n">
-        <v>179.2857142857143</v>
+        <v>179.9880917059273</v>
       </c>
       <c r="U28" t="n">
-        <v>100.7142857142857</v>
+        <v>100.0119082940727</v>
       </c>
       <c r="V28" t="n">
         <v>120</v>
       </c>
       <c r="W28" t="n">
-        <v>85</v>
+        <v>88.19095255169185</v>
       </c>
       <c r="X28" t="n">
-        <v>155</v>
+        <v>151.8090474483081</v>
       </c>
     </row>
     <row r="29">
@@ -2558,73 +2558,73 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>16.82835650301353</v>
       </c>
       <c r="C29" t="n">
-        <v>73</v>
+        <v>59.17164349698647</v>
       </c>
       <c r="D29" t="n">
         <v>300</v>
       </c>
       <c r="E29" t="n">
-        <v>380</v>
+        <v>368.2083705292995</v>
       </c>
       <c r="F29" t="n">
-        <v>220</v>
+        <v>231.7916294707005</v>
       </c>
       <c r="G29" t="n">
         <v>214.5454545454545</v>
       </c>
       <c r="H29" t="n">
-        <v>268.1818181818182</v>
+        <v>259.8405546997836</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9090909090909</v>
+        <v>169.2503543911255</v>
       </c>
       <c r="J29" t="n">
         <v>124.4444444444444</v>
       </c>
       <c r="K29" t="n">
-        <v>95.77777777777777</v>
+        <v>105.7386122662257</v>
       </c>
       <c r="L29" t="n">
-        <v>153.1111111111111</v>
+        <v>143.1502766226632</v>
       </c>
       <c r="M29" t="n">
         <v>65.55555555555556</v>
       </c>
       <c r="N29" t="n">
-        <v>21.66666666666667</v>
+        <v>7.748750794628414</v>
       </c>
       <c r="O29" t="n">
-        <v>109.4444444444444</v>
+        <v>123.3623603164827</v>
       </c>
       <c r="P29" t="n">
         <v>122.5351834300446</v>
       </c>
       <c r="Q29" t="n">
-        <v>157.3772504852081</v>
+        <v>73.96369751079112</v>
       </c>
       <c r="R29" t="n">
-        <v>87.69311637488117</v>
+        <v>171.1066693492982</v>
       </c>
       <c r="S29" t="n">
         <v>150</v>
       </c>
       <c r="T29" t="n">
-        <v>110</v>
+        <v>197.5122957730611</v>
       </c>
       <c r="U29" t="n">
-        <v>190</v>
+        <v>102.487704226939</v>
       </c>
       <c r="V29" t="n">
         <v>145.7142857142857</v>
       </c>
       <c r="W29" t="n">
-        <v>185.7142857142857</v>
+        <v>93.82993556786667</v>
       </c>
       <c r="X29" t="n">
-        <v>105.7142857142857</v>
+        <v>197.5986358607048</v>
       </c>
     </row>
     <row r="30">
@@ -2632,73 +2632,73 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>19.90508741306293</v>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>64.09491258693707</v>
       </c>
       <c r="D30" t="n">
         <v>285</v>
       </c>
       <c r="E30" t="n">
-        <v>355</v>
+        <v>346.6091862121168</v>
       </c>
       <c r="F30" t="n">
-        <v>215</v>
+        <v>223.3908137878832</v>
       </c>
       <c r="G30" t="n">
         <v>209.0909090909091</v>
       </c>
       <c r="H30" t="n">
-        <v>261.3636363636364</v>
+        <v>258.0027740903058</v>
       </c>
       <c r="I30" t="n">
-        <v>156.8181818181818</v>
+        <v>160.1790440915124</v>
       </c>
       <c r="J30" t="n">
         <v>127.2222222222222</v>
       </c>
       <c r="K30" t="n">
-        <v>156.5555555555556</v>
+        <v>163.5569605808727</v>
       </c>
       <c r="L30" t="n">
-        <v>97.8888888888889</v>
+        <v>90.8874838635718</v>
       </c>
       <c r="M30" t="n">
         <v>62.77777777777778</v>
       </c>
       <c r="N30" t="n">
-        <v>18.33333333333334</v>
+        <v>4.526531874762519</v>
       </c>
       <c r="O30" t="n">
-        <v>107.2222222222222</v>
+        <v>121.029023680793</v>
       </c>
       <c r="P30" t="n">
         <v>120.8224392477091</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.12330430152724</v>
+        <v>87.02561533947964</v>
       </c>
       <c r="R30" t="n">
-        <v>157.521574193891</v>
+        <v>154.6192631559386</v>
       </c>
       <c r="S30" t="n">
         <v>150</v>
       </c>
       <c r="T30" t="n">
-        <v>110</v>
+        <v>195.0703972265174</v>
       </c>
       <c r="U30" t="n">
-        <v>190</v>
+        <v>104.9296027734826</v>
       </c>
       <c r="V30" t="n">
         <v>171.4285714285714</v>
       </c>
       <c r="W30" t="n">
-        <v>126.4285714285714</v>
+        <v>211.7924197885075</v>
       </c>
       <c r="X30" t="n">
-        <v>216.4285714285714</v>
+        <v>131.0647230686354</v>
       </c>
     </row>
     <row r="31">
@@ -2706,73 +2706,73 @@
         <v>45</v>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>3.655724897117608</v>
       </c>
       <c r="C31" t="n">
-        <v>75</v>
+        <v>86.34427510288239</v>
       </c>
       <c r="D31" t="n">
         <v>270</v>
       </c>
       <c r="E31" t="n">
-        <v>335</v>
+        <v>330.494788550099</v>
       </c>
       <c r="F31" t="n">
-        <v>205</v>
+        <v>209.505211449901</v>
       </c>
       <c r="G31" t="n">
         <v>203.6363636363636</v>
       </c>
       <c r="H31" t="n">
-        <v>254.5454545454545</v>
+        <v>267.6369640412674</v>
       </c>
       <c r="I31" t="n">
-        <v>152.7272727272727</v>
+        <v>139.6357632314598</v>
       </c>
       <c r="J31" t="n">
         <v>130</v>
       </c>
       <c r="K31" t="n">
-        <v>160</v>
+        <v>157.2533158045604</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>102.7466841954396</v>
       </c>
       <c r="M31" t="n">
         <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>24.34756033212194</v>
       </c>
       <c r="O31" t="n">
-        <v>105</v>
+        <v>95.65243966787806</v>
       </c>
       <c r="P31" t="n">
         <v>126.3871869731721</v>
       </c>
       <c r="Q31" t="n">
-        <v>163.2333683741455</v>
+        <v>98.03247076249193</v>
       </c>
       <c r="R31" t="n">
-        <v>89.54100557219873</v>
+        <v>154.7419031838523</v>
       </c>
       <c r="S31" t="n">
         <v>164.2857142857143</v>
       </c>
       <c r="T31" t="n">
-        <v>121.4285714285714</v>
+        <v>122.395985636222</v>
       </c>
       <c r="U31" t="n">
-        <v>207.1428571428571</v>
+        <v>206.1754429352065</v>
       </c>
       <c r="V31" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="W31" t="n">
-        <v>247.1428571428571</v>
+        <v>261.6853402614153</v>
       </c>
       <c r="X31" t="n">
-        <v>147.1428571428571</v>
+        <v>132.600374024299</v>
       </c>
     </row>
     <row r="32">
@@ -2780,73 +2780,73 @@
         <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>27.0495949850085</v>
       </c>
       <c r="C32" t="n">
-        <v>75</v>
+        <v>62.9504050149915</v>
       </c>
       <c r="D32" t="n">
         <v>270</v>
       </c>
       <c r="E32" t="n">
-        <v>335</v>
+        <v>334.033624537469</v>
       </c>
       <c r="F32" t="n">
-        <v>205</v>
+        <v>205.966375462531</v>
       </c>
       <c r="G32" t="n">
         <v>198.1818181818182</v>
       </c>
       <c r="H32" t="n">
-        <v>247.7272727272727</v>
+        <v>262.0071354014607</v>
       </c>
       <c r="I32" t="n">
-        <v>148.6363636363636</v>
+        <v>134.3565009621756</v>
       </c>
       <c r="J32" t="n">
         <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>160</v>
+        <v>99.16273529746239</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>160.8372647025376</v>
       </c>
       <c r="M32" t="n">
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>29.27080315111539</v>
       </c>
       <c r="O32" t="n">
-        <v>105</v>
+        <v>90.72919684888461</v>
       </c>
       <c r="P32" t="n">
         <v>121.8746619521254</v>
       </c>
       <c r="Q32" t="n">
-        <v>157.1363751081896</v>
+        <v>80.09467340246169</v>
       </c>
       <c r="R32" t="n">
-        <v>86.61294879606127</v>
+        <v>163.6546505017892</v>
       </c>
       <c r="S32" t="n">
         <v>178.5714285714286</v>
       </c>
       <c r="T32" t="n">
-        <v>132.8571428571429</v>
+        <v>215.4311869946482</v>
       </c>
       <c r="U32" t="n">
-        <v>224.2857142857143</v>
+        <v>141.711670148209</v>
       </c>
       <c r="V32" t="n">
         <v>222.8571428571429</v>
       </c>
       <c r="W32" t="n">
-        <v>277.8571428571429</v>
+        <v>263.7191043260417</v>
       </c>
       <c r="X32" t="n">
-        <v>167.8571428571429</v>
+        <v>181.995181388244</v>
       </c>
     </row>
     <row r="33">
@@ -2854,73 +2854,73 @@
         <v>46.66666666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>17.55555555555555</v>
+        <v>19.92232680540399</v>
       </c>
       <c r="C33" t="n">
-        <v>75.77777777777777</v>
+        <v>73.41100652792935</v>
       </c>
       <c r="D33" t="n">
         <v>264.4444444444445</v>
       </c>
       <c r="E33" t="n">
-        <v>328.3333333333334</v>
+        <v>319.3856301212823</v>
       </c>
       <c r="F33" t="n">
-        <v>200.5555555555556</v>
+        <v>209.5032587676066</v>
       </c>
       <c r="G33" t="n">
         <v>192.7272727272727</v>
       </c>
       <c r="H33" t="n">
-        <v>240.9090909090909</v>
+        <v>246.0806011864753</v>
       </c>
       <c r="I33" t="n">
-        <v>144.5454545454545</v>
+        <v>139.3739442680701</v>
       </c>
       <c r="J33" t="n">
         <v>133.3333333333333</v>
       </c>
       <c r="K33" t="n">
-        <v>164.2222222222222</v>
+        <v>177.3493697407505</v>
       </c>
       <c r="L33" t="n">
-        <v>102.4444444444445</v>
+        <v>89.3172969259162</v>
       </c>
       <c r="M33" t="n">
         <v>63.33333333333334</v>
       </c>
       <c r="N33" t="n">
-        <v>19.44444444444445</v>
+        <v>28.30777805304593</v>
       </c>
       <c r="O33" t="n">
-        <v>107.2222222222222</v>
+        <v>98.35888861362073</v>
       </c>
       <c r="P33" t="n">
         <v>117.5214203502953</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.3440939844007</v>
+        <v>70.51787083174258</v>
       </c>
       <c r="R33" t="n">
-        <v>149.6987467161899</v>
+        <v>164.524969868848</v>
       </c>
       <c r="S33" t="n">
         <v>192.8571428571429</v>
       </c>
       <c r="T33" t="n">
-        <v>241.4285714285714</v>
+        <v>241.1515481013035</v>
       </c>
       <c r="U33" t="n">
-        <v>144.2857142857143</v>
+        <v>144.5627376129822</v>
       </c>
       <c r="V33" t="n">
         <v>248.5714285714286</v>
       </c>
       <c r="W33" t="n">
-        <v>308.5714285714286</v>
+        <v>304.1219706595322</v>
       </c>
       <c r="X33" t="n">
-        <v>188.5714285714286</v>
+        <v>193.020886483325</v>
       </c>
     </row>
     <row r="34">
@@ -2928,73 +2928,73 @@
         <v>48.33333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>20.11111111111111</v>
+        <v>6.374425206596058</v>
       </c>
       <c r="C34" t="n">
-        <v>76.55555555555556</v>
+        <v>90.29224146007061</v>
       </c>
       <c r="D34" t="n">
         <v>258.8888888888889</v>
       </c>
       <c r="E34" t="n">
-        <v>321.6666666666667</v>
+        <v>325.8788684231141</v>
       </c>
       <c r="F34" t="n">
-        <v>196.1111111111111</v>
+        <v>191.8989093546637</v>
       </c>
       <c r="G34" t="n">
         <v>187.2727272727273</v>
       </c>
       <c r="H34" t="n">
-        <v>234.0909090909091</v>
+        <v>246.175932347061</v>
       </c>
       <c r="I34" t="n">
-        <v>140.4545454545455</v>
+        <v>128.3695221983935</v>
       </c>
       <c r="J34" t="n">
         <v>136.6666666666667</v>
       </c>
       <c r="K34" t="n">
-        <v>104.8888888888889</v>
+        <v>104.2380052155401</v>
       </c>
       <c r="L34" t="n">
-        <v>168.4444444444444</v>
+        <v>169.0953281177932</v>
       </c>
       <c r="M34" t="n">
         <v>66.66666666666667</v>
       </c>
       <c r="N34" t="n">
-        <v>23.88888888888889</v>
+        <v>17.89358046509217</v>
       </c>
       <c r="O34" t="n">
-        <v>109.4444444444445</v>
+        <v>115.4397528682412</v>
       </c>
       <c r="P34" t="n">
         <v>128.363264422933</v>
       </c>
       <c r="Q34" t="n">
-        <v>156.4071194298471</v>
+        <v>149.0755410978721</v>
       </c>
       <c r="R34" t="n">
-        <v>100.3194094160189</v>
+        <v>107.6509877479938</v>
       </c>
       <c r="S34" t="n">
         <v>207.1428571428571</v>
       </c>
       <c r="T34" t="n">
-        <v>258.5714285714286</v>
+        <v>254.7429692529803</v>
       </c>
       <c r="U34" t="n">
-        <v>155.7142857142857</v>
+        <v>159.5427450327339</v>
       </c>
       <c r="V34" t="n">
         <v>274.2857142857143</v>
       </c>
       <c r="W34" t="n">
-        <v>339.2857142857143</v>
+        <v>335.7144809618298</v>
       </c>
       <c r="X34" t="n">
-        <v>209.2857142857143</v>
+        <v>212.8569476095987</v>
       </c>
     </row>
     <row r="35">
@@ -3002,73 +3002,73 @@
         <v>50</v>
       </c>
       <c r="B35" t="n">
-        <v>22.66666666666667</v>
+        <v>21.67170811747616</v>
       </c>
       <c r="C35" t="n">
-        <v>77.33333333333333</v>
+        <v>78.32829188252384</v>
       </c>
       <c r="D35" t="n">
         <v>253.3333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>315</v>
+        <v>314.4920950665526</v>
       </c>
       <c r="F35" t="n">
-        <v>191.6666666666667</v>
+        <v>192.1745716001141</v>
       </c>
       <c r="G35" t="n">
         <v>181.8181818181818</v>
       </c>
       <c r="H35" t="n">
-        <v>227.2727272727273</v>
+        <v>237.6452534115226</v>
       </c>
       <c r="I35" t="n">
-        <v>136.3636363636364</v>
+        <v>125.991110224841</v>
       </c>
       <c r="J35" t="n">
         <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>172.6666666666667</v>
+        <v>119.0875318467164</v>
       </c>
       <c r="L35" t="n">
-        <v>107.3333333333333</v>
+        <v>160.9124681532836</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>111.6666666666667</v>
+        <v>19.94789576666744</v>
       </c>
       <c r="O35" t="n">
-        <v>28.33333333333334</v>
+        <v>120.0521042333326</v>
       </c>
       <c r="P35" t="n">
         <v>127.0180787558204</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5526046960344</v>
+        <v>158.6918876542128</v>
       </c>
       <c r="R35" t="n">
-        <v>100.4835528156063</v>
+        <v>95.34426985742789</v>
       </c>
       <c r="S35" t="n">
         <v>221.4285714285714</v>
       </c>
       <c r="T35" t="n">
-        <v>275.7142857142857</v>
+        <v>275.0363203598334</v>
       </c>
       <c r="U35" t="n">
-        <v>167.1428571428572</v>
+        <v>167.8208224973095</v>
       </c>
       <c r="V35" t="n">
         <v>300</v>
       </c>
       <c r="W35" t="n">
-        <v>370</v>
+        <v>377.9248039409788</v>
       </c>
       <c r="X35" t="n">
-        <v>230</v>
+        <v>222.0751960590212</v>
       </c>
     </row>
     <row r="36">
@@ -3076,73 +3076,73 @@
         <v>51.66666666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>25.22222222222222</v>
+        <v>19.46590880370803</v>
       </c>
       <c r="C36" t="n">
-        <v>78.11111111111111</v>
+        <v>83.86742452962531</v>
       </c>
       <c r="D36" t="n">
         <v>247.7777777777778</v>
       </c>
       <c r="E36" t="n">
-        <v>308.3333333333333</v>
+        <v>308.4904349338898</v>
       </c>
       <c r="F36" t="n">
-        <v>187.2222222222222</v>
+        <v>187.0651206216658</v>
       </c>
       <c r="G36" t="n">
         <v>176.3636363636364</v>
       </c>
       <c r="H36" t="n">
-        <v>132.2727272727273</v>
+        <v>135.9329060328606</v>
       </c>
       <c r="I36" t="n">
-        <v>220.4545454545455</v>
+        <v>216.7943666944121</v>
       </c>
       <c r="J36" t="n">
         <v>143.3333333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7777777777778</v>
+        <v>120.0310755622338</v>
       </c>
       <c r="L36" t="n">
-        <v>176.8888888888889</v>
+        <v>166.6355911044329</v>
       </c>
       <c r="M36" t="n">
         <v>73.33333333333333</v>
       </c>
       <c r="N36" t="n">
-        <v>113.8888888888889</v>
+        <v>99.57688166206134</v>
       </c>
       <c r="O36" t="n">
-        <v>32.77777777777777</v>
+        <v>47.08978500460533</v>
       </c>
       <c r="P36" t="n">
         <v>120.2956331009617</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.40702247691442</v>
+        <v>86.43684508274092</v>
       </c>
       <c r="R36" t="n">
-        <v>151.1842437250089</v>
+        <v>154.1544211191824</v>
       </c>
       <c r="S36" t="n">
         <v>235.7142857142857</v>
       </c>
       <c r="T36" t="n">
-        <v>292.8571428571429</v>
+        <v>288.8338544305607</v>
       </c>
       <c r="U36" t="n">
-        <v>178.5714285714286</v>
+        <v>182.5947169980108</v>
       </c>
       <c r="V36" t="n">
         <v>320</v>
       </c>
       <c r="W36" t="n">
-        <v>395</v>
+        <v>408.1641173993231</v>
       </c>
       <c r="X36" t="n">
-        <v>245</v>
+        <v>231.8358826006769</v>
       </c>
     </row>
     <row r="37">
@@ -3150,73 +3150,73 @@
         <v>53.33333333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>27.77777777777778</v>
+        <v>33.31230884759589</v>
       </c>
       <c r="C37" t="n">
-        <v>78.88888888888889</v>
+        <v>73.35435781907078</v>
       </c>
       <c r="D37" t="n">
         <v>242.2222222222222</v>
       </c>
       <c r="E37" t="n">
-        <v>301.6666666666667</v>
+        <v>298.2734462002235</v>
       </c>
       <c r="F37" t="n">
-        <v>182.7777777777778</v>
+        <v>186.170998244221</v>
       </c>
       <c r="G37" t="n">
         <v>170.9090909090909</v>
       </c>
       <c r="H37" t="n">
-        <v>128.1818181818182</v>
+        <v>140.4153079156665</v>
       </c>
       <c r="I37" t="n">
-        <v>213.6363636363636</v>
+        <v>201.4028739025154</v>
       </c>
       <c r="J37" t="n">
         <v>146.6666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>112.2222222222222</v>
+        <v>110.8661426711258</v>
       </c>
       <c r="L37" t="n">
-        <v>181.1111111111111</v>
+        <v>182.4671906622075</v>
       </c>
       <c r="M37" t="n">
         <v>76.66666666666667</v>
       </c>
       <c r="N37" t="n">
-        <v>116.1111111111111</v>
+        <v>118.4409968550038</v>
       </c>
       <c r="O37" t="n">
-        <v>37.22222222222223</v>
+        <v>34.89233647832955</v>
       </c>
       <c r="P37" t="n">
         <v>116.3984726687955</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.01649487917919</v>
+        <v>75.4965305125138</v>
       </c>
       <c r="R37" t="n">
-        <v>150.7804504584119</v>
+        <v>157.3004148250773</v>
       </c>
       <c r="S37" t="n">
         <v>250</v>
       </c>
       <c r="T37" t="n">
-        <v>310</v>
+        <v>320.1375398292778</v>
       </c>
       <c r="U37" t="n">
-        <v>190</v>
+        <v>179.8624601707222</v>
       </c>
       <c r="V37" t="n">
         <v>350</v>
       </c>
       <c r="W37" t="n">
-        <v>435</v>
+        <v>429.5906938940108</v>
       </c>
       <c r="X37" t="n">
-        <v>265</v>
+        <v>270.4093061059892</v>
       </c>
     </row>
     <row r="38">
@@ -3224,73 +3224,73 @@
         <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>30.33333333333333</v>
+        <v>24.73830550288582</v>
       </c>
       <c r="C38" t="n">
-        <v>79.66666666666667</v>
+        <v>85.26169449711418</v>
       </c>
       <c r="D38" t="n">
         <v>236.6666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>295</v>
+        <v>303.8091236332473</v>
       </c>
       <c r="F38" t="n">
-        <v>178.3333333333333</v>
+        <v>169.524209700086</v>
       </c>
       <c r="G38" t="n">
         <v>165.4545454545455</v>
       </c>
       <c r="H38" t="n">
-        <v>206.8181818181818</v>
+        <v>211.4205088938879</v>
       </c>
       <c r="I38" t="n">
-        <v>124.0909090909091</v>
+        <v>119.488582015203</v>
       </c>
       <c r="J38" t="n">
         <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>114.6666666666667</v>
+        <v>113.9345442646125</v>
       </c>
       <c r="L38" t="n">
-        <v>185.3333333333333</v>
+        <v>186.0654557353875</v>
       </c>
       <c r="M38" t="n">
         <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>41.66666666666666</v>
+        <v>103.3825985148147</v>
       </c>
       <c r="O38" t="n">
-        <v>118.3333333333333</v>
+        <v>56.6174014851853</v>
       </c>
       <c r="P38" t="n">
         <v>102.2316566979808</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.7356709344207</v>
+        <v>52.60715642219374</v>
       </c>
       <c r="R38" t="n">
-        <v>65.72764246154088</v>
+        <v>151.8561569737678</v>
       </c>
       <c r="S38" t="n">
         <v>250</v>
       </c>
       <c r="T38" t="n">
-        <v>310</v>
+        <v>318.0594251955853</v>
       </c>
       <c r="U38" t="n">
-        <v>190</v>
+        <v>181.9405748044147</v>
       </c>
       <c r="V38" t="n">
         <v>380</v>
       </c>
       <c r="W38" t="n">
-        <v>475</v>
+        <v>472.9742779837125</v>
       </c>
       <c r="X38" t="n">
-        <v>285</v>
+        <v>287.0257220162875</v>
       </c>
     </row>
     <row r="39">
@@ -3298,73 +3298,73 @@
         <v>56.66666666666667</v>
       </c>
       <c r="B39" t="n">
-        <v>32.88888888888889</v>
+        <v>22.8501187319677</v>
       </c>
       <c r="C39" t="n">
-        <v>80.44444444444446</v>
+        <v>90.48321460136563</v>
       </c>
       <c r="D39" t="n">
         <v>231.1111111111111</v>
       </c>
       <c r="E39" t="n">
-        <v>288.3333333333333</v>
+        <v>290.7334586996676</v>
       </c>
       <c r="F39" t="n">
-        <v>173.8888888888889</v>
+        <v>171.4887635225547</v>
       </c>
       <c r="G39" t="n">
         <v>160</v>
       </c>
       <c r="H39" t="n">
-        <v>200</v>
+        <v>201.7352228716535</v>
       </c>
       <c r="I39" t="n">
-        <v>120</v>
+        <v>118.2647771283465</v>
       </c>
       <c r="J39" t="n">
         <v>153.3333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>117.1111111111111</v>
+        <v>193.6838628793354</v>
       </c>
       <c r="L39" t="n">
-        <v>189.5555555555556</v>
+        <v>112.9828037873313</v>
       </c>
       <c r="M39" t="n">
         <v>83.33333333333334</v>
       </c>
       <c r="N39" t="n">
-        <v>46.11111111111112</v>
+        <v>45.64693275394932</v>
       </c>
       <c r="O39" t="n">
-        <v>120.5555555555556</v>
+        <v>121.0197339127174</v>
       </c>
       <c r="P39" t="n">
         <v>104.8669093592646</v>
       </c>
       <c r="Q39" t="n">
-        <v>141.811458714655</v>
+        <v>137.365751770846</v>
       </c>
       <c r="R39" t="n">
-        <v>67.92236000387422</v>
+        <v>72.36806694768316</v>
       </c>
       <c r="S39" t="n">
         <v>260</v>
       </c>
       <c r="T39" t="n">
-        <v>323</v>
+        <v>317.4198403163799</v>
       </c>
       <c r="U39" t="n">
-        <v>197</v>
+        <v>202.5801596836201</v>
       </c>
       <c r="V39" t="n">
         <v>400</v>
       </c>
       <c r="W39" t="n">
-        <v>500</v>
+        <v>493.104372247744</v>
       </c>
       <c r="X39" t="n">
-        <v>300</v>
+        <v>306.895627752256</v>
       </c>
     </row>
     <row r="40">
@@ -3372,73 +3372,73 @@
         <v>58.33333333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>35.44444444444444</v>
+        <v>49.89579612411869</v>
       </c>
       <c r="C40" t="n">
-        <v>81.22222222222223</v>
+        <v>66.77087054254798</v>
       </c>
       <c r="D40" t="n">
         <v>225.5555555555555</v>
       </c>
       <c r="E40" t="n">
-        <v>281.6666666666666</v>
+        <v>271.5356246217361</v>
       </c>
       <c r="F40" t="n">
-        <v>169.4444444444444</v>
+        <v>179.575486489375</v>
       </c>
       <c r="G40" t="n">
         <v>160</v>
       </c>
       <c r="H40" t="n">
-        <v>120</v>
+        <v>195.8469428918773</v>
       </c>
       <c r="I40" t="n">
-        <v>200</v>
+        <v>124.1530571081227</v>
       </c>
       <c r="J40" t="n">
         <v>156.6666666666667</v>
       </c>
       <c r="K40" t="n">
-        <v>193.7777777777778</v>
+        <v>190.8226410854859</v>
       </c>
       <c r="L40" t="n">
-        <v>119.5555555555555</v>
+        <v>122.5106922478474</v>
       </c>
       <c r="M40" t="n">
         <v>86.66666666666667</v>
       </c>
       <c r="N40" t="n">
-        <v>50.55555555555556</v>
+        <v>46.36170027162984</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7777777777778</v>
+        <v>126.9716330617035</v>
       </c>
       <c r="P40" t="n">
         <v>102.9458351799008</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.5850268563768</v>
+        <v>131.1940497805187</v>
       </c>
       <c r="R40" t="n">
-        <v>67.30664350342482</v>
+        <v>74.69762057928294</v>
       </c>
       <c r="S40" t="n">
         <v>270</v>
       </c>
       <c r="T40" t="n">
-        <v>336</v>
+        <v>338.1787599793186</v>
       </c>
       <c r="U40" t="n">
-        <v>204</v>
+        <v>201.8212400206814</v>
       </c>
       <c r="V40" t="n">
         <v>420</v>
       </c>
       <c r="W40" t="n">
-        <v>525</v>
+        <v>534.0316765897918</v>
       </c>
       <c r="X40" t="n">
-        <v>315</v>
+        <v>305.9683234102082</v>
       </c>
     </row>
     <row r="41">
@@ -3446,73 +3446,73 @@
         <v>60</v>
       </c>
       <c r="B41" t="n">
-        <v>38</v>
+        <v>30.49567055165097</v>
       </c>
       <c r="C41" t="n">
-        <v>82</v>
+        <v>89.50432944834903</v>
       </c>
       <c r="D41" t="n">
         <v>220</v>
       </c>
       <c r="E41" t="n">
-        <v>275</v>
+        <v>281.0225703982147</v>
       </c>
       <c r="F41" t="n">
-        <v>165</v>
+        <v>158.9774296017853</v>
       </c>
       <c r="G41" t="n">
         <v>155</v>
       </c>
       <c r="H41" t="n">
-        <v>116.3636363636364</v>
+        <v>185.3879987815586</v>
       </c>
       <c r="I41" t="n">
-        <v>193.6363636363636</v>
+        <v>124.6120012184414</v>
       </c>
       <c r="J41" t="n">
         <v>160</v>
       </c>
       <c r="K41" t="n">
-        <v>122</v>
+        <v>202.4941532705803</v>
       </c>
       <c r="L41" t="n">
-        <v>198</v>
+        <v>117.5058467294197</v>
       </c>
       <c r="M41" t="n">
         <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>125</v>
+        <v>139.5687320841257</v>
       </c>
       <c r="O41" t="n">
-        <v>55</v>
+        <v>40.43126791587434</v>
       </c>
       <c r="P41" t="n">
         <v>102.9855294356715</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.764270179365</v>
+        <v>73.13261342087482</v>
       </c>
       <c r="R41" t="n">
-        <v>70.20678869197801</v>
+        <v>132.8384454504682</v>
       </c>
       <c r="S41" t="n">
         <v>280</v>
       </c>
       <c r="T41" t="n">
-        <v>349</v>
+        <v>342.2814714499208</v>
       </c>
       <c r="U41" t="n">
-        <v>211</v>
+        <v>217.7185285500792</v>
       </c>
       <c r="V41" t="n">
         <v>440</v>
       </c>
       <c r="W41" t="n">
-        <v>550</v>
+        <v>554.1471641836936</v>
       </c>
       <c r="X41" t="n">
-        <v>330</v>
+        <v>325.8528358163064</v>
       </c>
     </row>
     <row r="42">
@@ -3520,73 +3520,73 @@
         <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>23.33416733280516</v>
       </c>
       <c r="C42" t="n">
-        <v>82</v>
+        <v>96.66583266719485</v>
       </c>
       <c r="D42" t="n">
         <v>220</v>
       </c>
       <c r="E42" t="n">
-        <v>275</v>
+        <v>288.9365324026776</v>
       </c>
       <c r="F42" t="n">
-        <v>165</v>
+        <v>151.0634675973224</v>
       </c>
       <c r="G42" t="n">
         <v>150</v>
       </c>
       <c r="H42" t="n">
-        <v>112.7272727272727</v>
+        <v>115.5316752359853</v>
       </c>
       <c r="I42" t="n">
-        <v>187.2727272727273</v>
+        <v>184.4683247640147</v>
       </c>
       <c r="J42" t="n">
         <v>160</v>
       </c>
       <c r="K42" t="n">
-        <v>122</v>
+        <v>125.092999912948</v>
       </c>
       <c r="L42" t="n">
-        <v>198</v>
+        <v>194.907000087052</v>
       </c>
       <c r="M42" t="n">
         <v>90</v>
       </c>
       <c r="N42" t="n">
-        <v>55</v>
+        <v>62.22707210766683</v>
       </c>
       <c r="O42" t="n">
-        <v>125</v>
+        <v>117.7729278923332</v>
       </c>
       <c r="P42" t="n">
         <v>105.8210061736785</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.03970755739502</v>
+        <v>141.9976263055115</v>
       </c>
       <c r="R42" t="n">
-        <v>134.6023047899619</v>
+        <v>69.64438604184548</v>
       </c>
       <c r="S42" t="n">
         <v>290</v>
       </c>
       <c r="T42" t="n">
-        <v>362</v>
+        <v>360.585287976392</v>
       </c>
       <c r="U42" t="n">
-        <v>218</v>
+        <v>219.414712023608</v>
       </c>
       <c r="V42" t="n">
         <v>450</v>
       </c>
       <c r="W42" t="n">
-        <v>565</v>
+        <v>552.0607040037447</v>
       </c>
       <c r="X42" t="n">
-        <v>335</v>
+        <v>347.9392959962553</v>
       </c>
     </row>
     <row r="43">
@@ -3594,73 +3594,73 @@
         <v>61.66666666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>40.11111111111111</v>
+        <v>32.66614147971593</v>
       </c>
       <c r="C43" t="n">
-        <v>83.22222222222223</v>
+        <v>90.6671918536174</v>
       </c>
       <c r="D43" t="n">
         <v>214.4444444444445</v>
       </c>
       <c r="E43" t="n">
-        <v>267.7777777777778</v>
+        <v>267.7780286128843</v>
       </c>
       <c r="F43" t="n">
-        <v>161.1111111111111</v>
+        <v>161.1108602760046</v>
       </c>
       <c r="G43" t="n">
         <v>145</v>
       </c>
       <c r="H43" t="n">
-        <v>180.9090909090909</v>
+        <v>110.022701629934</v>
       </c>
       <c r="I43" t="n">
-        <v>109.0909090909091</v>
+        <v>179.977298370066</v>
       </c>
       <c r="J43" t="n">
         <v>157.7777777777778</v>
       </c>
       <c r="K43" t="n">
-        <v>195.1111111111111</v>
+        <v>116.7269610379977</v>
       </c>
       <c r="L43" t="n">
-        <v>120.4444444444444</v>
+        <v>198.8285945175578</v>
       </c>
       <c r="M43" t="n">
         <v>93.33333333333333</v>
       </c>
       <c r="N43" t="n">
-        <v>59.11111111111111</v>
+        <v>50.03620455322501</v>
       </c>
       <c r="O43" t="n">
-        <v>127.5555555555555</v>
+        <v>136.6304621134416</v>
       </c>
       <c r="P43" t="n">
         <v>94.10287497103437</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.8717176108029</v>
+        <v>61.61191530891517</v>
       </c>
       <c r="R43" t="n">
-        <v>68.33403233126583</v>
+        <v>126.5938346331536</v>
       </c>
       <c r="S43" t="n">
         <v>300</v>
       </c>
       <c r="T43" t="n">
-        <v>375</v>
+        <v>370.5893509783318</v>
       </c>
       <c r="U43" t="n">
-        <v>225</v>
+        <v>229.4106490216682</v>
       </c>
       <c r="V43" t="n">
         <v>440</v>
       </c>
       <c r="W43" t="n">
-        <v>550</v>
+        <v>553.1093342910733</v>
       </c>
       <c r="X43" t="n">
-        <v>330</v>
+        <v>326.8906657089267</v>
       </c>
     </row>
     <row r="44">
@@ -3668,73 +3668,73 @@
         <v>63.33333333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>42.22222222222223</v>
+        <v>48.80890246029007</v>
       </c>
       <c r="C44" t="n">
-        <v>84.44444444444444</v>
+        <v>77.8577642063766</v>
       </c>
       <c r="D44" t="n">
         <v>208.8888888888889</v>
       </c>
       <c r="E44" t="n">
-        <v>260.5555555555555</v>
+        <v>272.2411574739399</v>
       </c>
       <c r="F44" t="n">
-        <v>157.2222222222222</v>
+        <v>145.5366203038379</v>
       </c>
       <c r="G44" t="n">
         <v>140</v>
       </c>
       <c r="H44" t="n">
-        <v>105.4545454545455</v>
+        <v>167.6225218929864</v>
       </c>
       <c r="I44" t="n">
-        <v>174.5454545454546</v>
+        <v>112.3774781070136</v>
       </c>
       <c r="J44" t="n">
         <v>155.5555555555555</v>
       </c>
       <c r="K44" t="n">
-        <v>118.8888888888889</v>
+        <v>110.8667398761852</v>
       </c>
       <c r="L44" t="n">
-        <v>192.2222222222222</v>
+        <v>200.2443712349259</v>
       </c>
       <c r="M44" t="n">
         <v>96.66666666666667</v>
       </c>
       <c r="N44" t="n">
-        <v>130.1111111111111</v>
+        <v>141.2256037211556</v>
       </c>
       <c r="O44" t="n">
-        <v>63.22222222222223</v>
+        <v>52.10772961217774</v>
       </c>
       <c r="P44" t="n">
         <v>91.47532062415817</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.26871575474748</v>
+        <v>64.0854818729958</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6819254935689</v>
+        <v>118.8651593753205</v>
       </c>
       <c r="S44" t="n">
         <v>300</v>
       </c>
       <c r="T44" t="n">
-        <v>375</v>
+        <v>379.7219838833927</v>
       </c>
       <c r="U44" t="n">
-        <v>225</v>
+        <v>220.2780161166073</v>
       </c>
       <c r="V44" t="n">
         <v>420</v>
       </c>
       <c r="W44" t="n">
-        <v>525</v>
+        <v>533.8672367528693</v>
       </c>
       <c r="X44" t="n">
-        <v>315</v>
+        <v>306.1327632471307</v>
       </c>
     </row>
     <row r="45">
@@ -3742,73 +3742,73 @@
         <v>65</v>
       </c>
       <c r="B45" t="n">
-        <v>44.33333333333333</v>
+        <v>35.65495347978867</v>
       </c>
       <c r="C45" t="n">
-        <v>85.66666666666667</v>
+        <v>94.34504652021133</v>
       </c>
       <c r="D45" t="n">
         <v>203.3333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>253.3333333333333</v>
+        <v>248.5817429134666</v>
       </c>
       <c r="F45" t="n">
-        <v>153.3333333333333</v>
+        <v>158.0849237532001</v>
       </c>
       <c r="G45" t="n">
         <v>135</v>
       </c>
       <c r="H45" t="n">
-        <v>101.8181818181818</v>
+        <v>161.9356014085812</v>
       </c>
       <c r="I45" t="n">
-        <v>168.1818181818182</v>
+        <v>108.0643985914188</v>
       </c>
       <c r="J45" t="n">
         <v>153.3333333333333</v>
       </c>
       <c r="K45" t="n">
-        <v>117.3333333333333</v>
+        <v>126.9641160320994</v>
       </c>
       <c r="L45" t="n">
-        <v>189.3333333333333</v>
+        <v>179.7025506345673</v>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>132.6666666666667</v>
+        <v>145.3491550850368</v>
       </c>
       <c r="O45" t="n">
-        <v>67.33333333333334</v>
+        <v>54.65084491496324</v>
       </c>
       <c r="P45" t="n">
         <v>99.78575470975704</v>
       </c>
       <c r="Q45" t="n">
-        <v>65.90241874485328</v>
+        <v>148.3504861230609</v>
       </c>
       <c r="R45" t="n">
-        <v>133.6690906746608</v>
+        <v>51.22102329645321</v>
       </c>
       <c r="S45" t="n">
         <v>282.8571428571428</v>
       </c>
       <c r="T45" t="n">
-        <v>354.2857142857143</v>
+        <v>350.3962467753553</v>
       </c>
       <c r="U45" t="n">
-        <v>211.4285714285714</v>
+        <v>215.3180389389303</v>
       </c>
       <c r="V45" t="n">
         <v>380</v>
       </c>
       <c r="W45" t="n">
-        <v>475</v>
+        <v>460.9602446927739</v>
       </c>
       <c r="X45" t="n">
-        <v>285</v>
+        <v>299.0397553072261</v>
       </c>
     </row>
     <row r="46">
@@ -3816,73 +3816,73 @@
         <v>66.66666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>46.44444444444445</v>
+        <v>58.34766424711519</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88888888888889</v>
+        <v>74.98566908621815</v>
       </c>
       <c r="D46" t="n">
         <v>197.7777777777778</v>
       </c>
       <c r="E46" t="n">
-        <v>246.1111111111111</v>
+        <v>248.1254349399424</v>
       </c>
       <c r="F46" t="n">
-        <v>149.4444444444444</v>
+        <v>147.4301206156132</v>
       </c>
       <c r="G46" t="n">
         <v>130</v>
       </c>
       <c r="H46" t="n">
-        <v>98.18181818181819</v>
+        <v>99.45122620212885</v>
       </c>
       <c r="I46" t="n">
-        <v>161.8181818181818</v>
+        <v>160.5487737978711</v>
       </c>
       <c r="J46" t="n">
         <v>151.1111111111111</v>
       </c>
       <c r="K46" t="n">
-        <v>186.4444444444445</v>
+        <v>182.7117175020707</v>
       </c>
       <c r="L46" t="n">
-        <v>115.7777777777778</v>
+        <v>119.5105047201515</v>
       </c>
       <c r="M46" t="n">
         <v>103.3333333333333</v>
       </c>
       <c r="N46" t="n">
-        <v>71.44444444444444</v>
+        <v>86.37801806847114</v>
       </c>
       <c r="O46" t="n">
-        <v>135.2222222222222</v>
+        <v>120.2886485981955</v>
       </c>
       <c r="P46" t="n">
         <v>94.98630031433484</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.72467924973772</v>
+        <v>60.20970082738274</v>
       </c>
       <c r="R46" t="n">
-        <v>131.2479213789319</v>
+        <v>129.7628998012869</v>
       </c>
       <c r="S46" t="n">
         <v>265.7142857142857</v>
       </c>
       <c r="T46" t="n">
-        <v>333.5714285714286</v>
+        <v>332.3442179081715</v>
       </c>
       <c r="U46" t="n">
-        <v>197.8571428571429</v>
+        <v>199.0843535203999</v>
       </c>
       <c r="V46" t="n">
         <v>380</v>
       </c>
       <c r="W46" t="n">
-        <v>475</v>
+        <v>473.663434663178</v>
       </c>
       <c r="X46" t="n">
-        <v>285</v>
+        <v>286.336565336822</v>
       </c>
     </row>
     <row r="47">
@@ -3890,73 +3890,73 @@
         <v>68.33333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>48.55555555555555</v>
+        <v>50.1187497702784</v>
       </c>
       <c r="C47" t="n">
-        <v>88.11111111111111</v>
+        <v>86.54791689638826</v>
       </c>
       <c r="D47" t="n">
         <v>192.2222222222222</v>
       </c>
       <c r="E47" t="n">
-        <v>238.8888888888889</v>
+        <v>236.7152677877722</v>
       </c>
       <c r="F47" t="n">
-        <v>145.5555555555556</v>
+        <v>147.7291766566723</v>
       </c>
       <c r="G47" t="n">
         <v>125</v>
       </c>
       <c r="H47" t="n">
-        <v>94.54545454545455</v>
+        <v>83.72943715704676</v>
       </c>
       <c r="I47" t="n">
-        <v>155.4545454545454</v>
+        <v>166.2705628429532</v>
       </c>
       <c r="J47" t="n">
         <v>148.8888888888889</v>
       </c>
       <c r="K47" t="n">
-        <v>114.2222222222222</v>
+        <v>183.6315473353636</v>
       </c>
       <c r="L47" t="n">
-        <v>183.5555555555555</v>
+        <v>114.1462304424142</v>
       </c>
       <c r="M47" t="n">
         <v>106.6666666666667</v>
       </c>
       <c r="N47" t="n">
-        <v>137.7777777777778</v>
+        <v>76.47090440282824</v>
       </c>
       <c r="O47" t="n">
-        <v>75.55555555555556</v>
+        <v>136.8624289305051</v>
       </c>
       <c r="P47" t="n">
         <v>90.32979443830244</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.3236290327107</v>
+        <v>57.1217068208836</v>
       </c>
       <c r="R47" t="n">
-        <v>53.33595984389419</v>
+        <v>123.5378820557213</v>
       </c>
       <c r="S47" t="n">
         <v>248.5714285714286</v>
       </c>
       <c r="T47" t="n">
-        <v>312.8571428571428</v>
+        <v>319.4368665324141</v>
       </c>
       <c r="U47" t="n">
-        <v>184.2857142857143</v>
+        <v>177.705990610443</v>
       </c>
       <c r="V47" t="n">
         <v>354</v>
       </c>
       <c r="W47" t="n">
-        <v>443</v>
+        <v>451.7051762401486</v>
       </c>
       <c r="X47" t="n">
-        <v>265</v>
+        <v>256.2948237598514</v>
       </c>
     </row>
     <row r="48">
@@ -3964,73 +3964,73 @@
         <v>70</v>
       </c>
       <c r="B48" t="n">
-        <v>89.33333333333333</v>
+        <v>38.4088015738738</v>
       </c>
       <c r="C48" t="n">
-        <v>50.66666666666667</v>
+        <v>101.5911984261262</v>
       </c>
       <c r="D48" t="n">
         <v>186.6666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>231.6666666666667</v>
+        <v>229.7690845574706</v>
       </c>
       <c r="F48" t="n">
-        <v>141.6666666666667</v>
+        <v>143.5642487758627</v>
       </c>
       <c r="G48" t="n">
         <v>120</v>
       </c>
       <c r="H48" t="n">
-        <v>149.0909090909091</v>
+        <v>151.6784962249437</v>
       </c>
       <c r="I48" t="n">
-        <v>90.90909090909091</v>
+        <v>88.32150377505627</v>
       </c>
       <c r="J48" t="n">
         <v>146.6666666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>112.6666666666667</v>
+        <v>186.266679064157</v>
       </c>
       <c r="L48" t="n">
-        <v>180.6666666666667</v>
+        <v>107.0666542691763</v>
       </c>
       <c r="M48" t="n">
         <v>110</v>
       </c>
       <c r="N48" t="n">
-        <v>140.3333333333333</v>
+        <v>154.7773954615137</v>
       </c>
       <c r="O48" t="n">
-        <v>79.66666666666667</v>
+        <v>65.22260453848635</v>
       </c>
       <c r="P48" t="n">
         <v>105.6571649706279</v>
       </c>
       <c r="Q48" t="n">
-        <v>69.68421349443814</v>
+        <v>63.39535530936207</v>
       </c>
       <c r="R48" t="n">
-        <v>141.6301164468177</v>
+        <v>147.9189746318937</v>
       </c>
       <c r="S48" t="n">
         <v>231.4285714285714</v>
       </c>
       <c r="T48" t="n">
-        <v>292.1428571428572</v>
+        <v>289.5326120162722</v>
       </c>
       <c r="U48" t="n">
-        <v>170.7142857142857</v>
+        <v>173.3245308408707</v>
       </c>
       <c r="V48" t="n">
         <v>328</v>
       </c>
       <c r="W48" t="n">
-        <v>411</v>
+        <v>425.6578955434119</v>
       </c>
       <c r="X48" t="n">
-        <v>245</v>
+        <v>230.3421044565881</v>
       </c>
     </row>
     <row r="49">
@@ -4038,73 +4038,73 @@
         <v>71.66666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>90.55555555555556</v>
+        <v>58.9693533265674</v>
       </c>
       <c r="C49" t="n">
-        <v>52.77777777777779</v>
+        <v>84.36398000676594</v>
       </c>
       <c r="D49" t="n">
         <v>181.1111111111111</v>
       </c>
       <c r="E49" t="n">
-        <v>224.4444444444445</v>
+        <v>232.7412199943574</v>
       </c>
       <c r="F49" t="n">
-        <v>137.7777777777778</v>
+        <v>129.4810022278648</v>
       </c>
       <c r="G49" t="n">
         <v>115</v>
       </c>
       <c r="H49" t="n">
-        <v>87.27272727272728</v>
+        <v>136.231908600239</v>
       </c>
       <c r="I49" t="n">
-        <v>142.7272727272727</v>
+        <v>93.76809139976098</v>
       </c>
       <c r="J49" t="n">
         <v>144.4444444444445</v>
       </c>
       <c r="K49" t="n">
-        <v>177.7777777777778</v>
+        <v>118.5007216512696</v>
       </c>
       <c r="L49" t="n">
-        <v>111.1111111111111</v>
+        <v>170.3881672376193</v>
       </c>
       <c r="M49" t="n">
         <v>113.3333333333333</v>
       </c>
       <c r="N49" t="n">
-        <v>83.77777777777779</v>
+        <v>86.80943366069226</v>
       </c>
       <c r="O49" t="n">
-        <v>142.8888888888889</v>
+        <v>139.8572330059744</v>
       </c>
       <c r="P49" t="n">
         <v>98.35172952854093</v>
       </c>
       <c r="Q49" t="n">
-        <v>131.6999201357828</v>
+        <v>77.52978232194783</v>
       </c>
       <c r="R49" t="n">
-        <v>65.00353892129908</v>
+        <v>119.173676735134</v>
       </c>
       <c r="S49" t="n">
         <v>214.2857142857143</v>
       </c>
       <c r="T49" t="n">
-        <v>271.4285714285714</v>
+        <v>283.6212695035016</v>
       </c>
       <c r="U49" t="n">
-        <v>157.1428571428571</v>
+        <v>144.950159067927</v>
       </c>
       <c r="V49" t="n">
         <v>302</v>
       </c>
       <c r="W49" t="n">
-        <v>379</v>
+        <v>381.518936305029</v>
       </c>
       <c r="X49" t="n">
-        <v>225</v>
+        <v>222.481063694971</v>
       </c>
     </row>
     <row r="50">
@@ -4112,73 +4112,73 @@
         <v>73.33333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>91.77777777777777</v>
+        <v>61.25562873129842</v>
       </c>
       <c r="C50" t="n">
-        <v>54.88888888888889</v>
+        <v>85.41103793536823</v>
       </c>
       <c r="D50" t="n">
         <v>175.5555555555555</v>
       </c>
       <c r="E50" t="n">
-        <v>133.8888888888889</v>
+        <v>132.8207636839592</v>
       </c>
       <c r="F50" t="n">
-        <v>217.2222222222222</v>
+        <v>218.2903474271519</v>
       </c>
       <c r="G50" t="n">
         <v>110</v>
       </c>
       <c r="H50" t="n">
-        <v>136.3636363636364</v>
+        <v>129.7029615623444</v>
       </c>
       <c r="I50" t="n">
-        <v>83.63636363636363</v>
+        <v>90.2970384376556</v>
       </c>
       <c r="J50" t="n">
         <v>142.2222222222222</v>
       </c>
       <c r="K50" t="n">
-        <v>109.5555555555556</v>
+        <v>176.5311147771656</v>
       </c>
       <c r="L50" t="n">
-        <v>174.8888888888889</v>
+        <v>107.9133296672788</v>
       </c>
       <c r="M50" t="n">
         <v>116.6666666666667</v>
       </c>
       <c r="N50" t="n">
-        <v>145.4444444444445</v>
+        <v>154.856418772052</v>
       </c>
       <c r="O50" t="n">
-        <v>87.88888888888889</v>
+        <v>78.47691456128135</v>
       </c>
       <c r="P50" t="n">
         <v>103.3878268591065</v>
       </c>
       <c r="Q50" t="n">
-        <v>132.891030917659</v>
+        <v>129.8422184819975</v>
       </c>
       <c r="R50" t="n">
-        <v>73.88462280055401</v>
+        <v>76.9334352362155</v>
       </c>
       <c r="S50" t="n">
         <v>197.1428571428571</v>
       </c>
       <c r="T50" t="n">
-        <v>250.7142857142857</v>
+        <v>241.1278342903661</v>
       </c>
       <c r="U50" t="n">
-        <v>143.5714285714286</v>
+        <v>153.1578799953481</v>
       </c>
       <c r="V50" t="n">
         <v>276</v>
       </c>
       <c r="W50" t="n">
-        <v>347</v>
+        <v>333.1673689292696</v>
       </c>
       <c r="X50" t="n">
-        <v>205</v>
+        <v>218.8326310707303</v>
       </c>
     </row>
     <row r="51">
@@ -4186,73 +4186,73 @@
         <v>75</v>
       </c>
       <c r="B51" t="n">
-        <v>93</v>
+        <v>81.90085716354832</v>
       </c>
       <c r="C51" t="n">
-        <v>57</v>
+        <v>68.09914283645168</v>
       </c>
       <c r="D51" t="n">
         <v>170</v>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>223.612266808346</v>
       </c>
       <c r="F51" t="n">
-        <v>130</v>
+        <v>116.387733191654</v>
       </c>
       <c r="G51" t="n">
         <v>105</v>
       </c>
       <c r="H51" t="n">
-        <v>130</v>
+        <v>128.6386622656584</v>
       </c>
       <c r="I51" t="n">
-        <v>80</v>
+        <v>81.36133773434159</v>
       </c>
       <c r="J51" t="n">
         <v>140</v>
       </c>
       <c r="K51" t="n">
-        <v>172</v>
+        <v>104.2520746780771</v>
       </c>
       <c r="L51" t="n">
-        <v>108</v>
+        <v>175.7479253219229</v>
       </c>
       <c r="M51" t="n">
         <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>92</v>
+        <v>90.60630506082566</v>
       </c>
       <c r="O51" t="n">
-        <v>148</v>
+        <v>149.3936949391743</v>
       </c>
       <c r="P51" t="n">
         <v>104.8324005030202</v>
       </c>
       <c r="Q51" t="n">
-        <v>129.8324005030202</v>
+        <v>137.9588294922566</v>
       </c>
       <c r="R51" t="n">
-        <v>79.83240050302015</v>
+        <v>71.70597151378377</v>
       </c>
       <c r="S51" t="n">
         <v>180</v>
       </c>
       <c r="T51" t="n">
-        <v>230</v>
+        <v>122.7664338126021</v>
       </c>
       <c r="U51" t="n">
-        <v>130</v>
+        <v>237.2335661873979</v>
       </c>
       <c r="V51" t="n">
         <v>250</v>
       </c>
       <c r="W51" t="n">
-        <v>315</v>
+        <v>313.3926872255371</v>
       </c>
       <c r="X51" t="n">
-        <v>185</v>
+        <v>186.6073127744629</v>
       </c>
     </row>
   </sheetData>
